--- a/电签系统评估/供应商分析比较.xlsx
+++ b/电签系统评估/供应商分析比较.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shixiaolin/Documents/git/transfer/电签系统评估/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ah0122875\Desktop\电签系统评估\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D39ECA-9795-314C-B6FC-6D18CE9C9D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA84CC2-F79F-4DEB-BA03-F82200E5397E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="23000" activeTab="1" xr2:uid="{13850604-592A-394E-9E6D-CEE1130DC802}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{13850604-592A-394E-9E6D-CEE1130DC802}"/>
   </bookViews>
   <sheets>
     <sheet name="Feature" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="207">
   <si>
     <t>√</t>
   </si>
@@ -885,10 +885,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="181" formatCode="\¥#,##0_);[Red]\(\¥#,##0\)"/>
-    <numFmt numFmtId="182" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="178" formatCode="\¥#,##0_);[Red]\(\¥#,##0\)"/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -1630,7 +1630,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1666,19 +1666,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1690,23 +1690,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1717,22 +1702,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="16" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1754,9 +1733,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1772,130 +1748,38 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="182" fontId="28" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="182" fontId="28" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1905,18 +1789,251 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="5" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="179" fontId="28" fillId="4" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="28" fillId="4" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="10" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="179" fontId="28" fillId="10" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="31" fontId="28" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="11" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1924,42 +2041,10 @@
     <xf numFmtId="0" fontId="30" fillId="11" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="182" fontId="28" fillId="4" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="28" fillId="4" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="10" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="12" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1974,148 +2059,63 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="10" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="10" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="182" fontId="28" fillId="10" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="31" fontId="28" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="179" fontId="28" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="28" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="百分比" xfId="2" builtinId="5"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="常规 2" xfId="5" xr:uid="{4DFA4381-EEC8-FA47-B180-7BA969C5772D}"/>
     <cellStyle name="常规 2 2" xfId="4" xr:uid="{0BD873E8-3F35-B041-9ECB-BC21CFE2D875}"/>
     <cellStyle name="常规 2 3" xfId="6" xr:uid="{4A5DCCF3-0EE0-E64A-BF89-3E2A703DFF19}"/>
     <cellStyle name="常规 3" xfId="3" xr:uid="{4DABF0CE-30DA-C94A-903A-CEE3823541B0}"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2306,12 +2306,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2609,581 +2605,655 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B345600C-3EC6-A545-A60E-E82B38A14FBE}">
   <dimension ref="B2:G42"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" customWidth="1"/>
+    <col min="3" max="3" width="32.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="18" customHeight="1">
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="71" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="141" t="s">
+      <c r="C2" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="141" t="s">
+      <c r="D2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="138" t="s">
+      <c r="E2" s="73" t="s">
         <v>179</v>
       </c>
-      <c r="F2" s="138" t="s">
+      <c r="F2" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="G2" s="138" t="s">
+      <c r="G2" s="73" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="33" customHeight="1">
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="140"/>
-    </row>
-    <row r="4" spans="2:7" ht="17" customHeight="1">
-      <c r="B4" s="62" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="74"/>
+    </row>
+    <row r="4" spans="2:7" ht="16.95" customHeight="1">
+      <c r="B4" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="35"/>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="35"/>
-    </row>
-    <row r="5" spans="2:7" ht="17">
-      <c r="B5" s="62"/>
-      <c r="C5" s="35" t="s">
+      <c r="G4" s="28"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="76"/>
+      <c r="C5" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="35"/>
-    </row>
-    <row r="6" spans="2:7" ht="17">
-      <c r="B6" s="62"/>
-      <c r="C6" s="35" t="s">
+      <c r="G5" s="28"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="76"/>
+      <c r="C6" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="35"/>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="35"/>
-    </row>
-    <row r="7" spans="2:7" ht="17">
-      <c r="B7" s="62"/>
-      <c r="C7" s="35" t="s">
+      <c r="G6" s="28"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="76"/>
+      <c r="C7" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="D7" s="35"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="35"/>
-    </row>
-    <row r="8" spans="2:7" ht="17">
-      <c r="B8" s="62"/>
-      <c r="C8" s="35" t="s">
+      <c r="G7" s="28"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="76"/>
+      <c r="C8" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="35"/>
+      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="35"/>
-    </row>
-    <row r="9" spans="2:7" ht="17">
-      <c r="B9" s="62"/>
-      <c r="C9" s="35" t="s">
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="76"/>
+      <c r="C9" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="35"/>
+      <c r="D9" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="35"/>
-    </row>
-    <row r="10" spans="2:7" ht="17">
-      <c r="B10" s="63" t="s">
+      <c r="G9" s="28"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="35"/>
+      <c r="D10" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-    </row>
-    <row r="11" spans="2:7" ht="17">
-      <c r="B11" s="64"/>
-      <c r="C11" s="35" t="s">
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="78"/>
+      <c r="C11" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="35"/>
+      <c r="D11" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-    </row>
-    <row r="12" spans="2:7" ht="17">
-      <c r="B12" s="64"/>
-      <c r="C12" s="35" t="s">
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="78"/>
+      <c r="C12" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="35"/>
+      <c r="D12" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-    </row>
-    <row r="13" spans="2:7" ht="17">
-      <c r="B13" s="64"/>
-      <c r="C13" s="35" t="s">
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="78"/>
+      <c r="C13" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="35"/>
+      <c r="D13" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-    </row>
-    <row r="14" spans="2:7" ht="17">
-      <c r="B14" s="64"/>
-      <c r="C14" s="35" t="s">
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="78"/>
+      <c r="C14" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="35"/>
+      <c r="D14" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-    </row>
-    <row r="15" spans="2:7" ht="17">
-      <c r="B15" s="64"/>
-      <c r="C15" s="35" t="s">
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="78"/>
+      <c r="C15" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="35"/>
+      <c r="D15" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-    </row>
-    <row r="16" spans="2:7" ht="17">
-      <c r="B16" s="64"/>
-      <c r="C16" s="35" t="s">
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="78"/>
+      <c r="C16" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="35"/>
+      <c r="D16" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-    </row>
-    <row r="17" spans="2:7" ht="17">
-      <c r="B17" s="62" t="s">
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="35"/>
+      <c r="D17" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="35"/>
-    </row>
-    <row r="18" spans="2:7" ht="17">
-      <c r="B18" s="62"/>
-      <c r="C18" s="35" t="s">
+      <c r="G17" s="28"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="76"/>
+      <c r="C18" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="35"/>
+      <c r="D18" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="35"/>
-    </row>
-    <row r="19" spans="2:7" ht="17">
-      <c r="B19" s="62"/>
-      <c r="C19" s="35" t="s">
+      <c r="G18" s="28"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="76"/>
+      <c r="C19" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="35"/>
+      <c r="D19" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G19" s="35"/>
-    </row>
-    <row r="20" spans="2:7" ht="17">
-      <c r="B20" s="62"/>
-      <c r="C20" s="35" t="s">
+      <c r="G19" s="28"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="76"/>
+      <c r="C20" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="35"/>
+      <c r="D20" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G20" s="35"/>
-    </row>
-    <row r="21" spans="2:7" ht="17">
-      <c r="B21" s="62" t="s">
+      <c r="G20" s="28"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="35"/>
+      <c r="D21" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-    </row>
-    <row r="22" spans="2:7" ht="17">
-      <c r="B22" s="62"/>
-      <c r="C22" s="35" t="s">
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="76"/>
+      <c r="C22" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="35"/>
+      <c r="D22" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-    </row>
-    <row r="23" spans="2:7" ht="17">
-      <c r="B23" s="62"/>
-      <c r="C23" s="35" t="s">
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="76"/>
+      <c r="C23" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="35"/>
+      <c r="D23" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-    </row>
-    <row r="24" spans="2:7" ht="17">
-      <c r="B24" s="62"/>
-      <c r="C24" s="35" t="s">
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="76"/>
+      <c r="C24" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="35"/>
+      <c r="D24" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-    </row>
-    <row r="25" spans="2:7" ht="17">
-      <c r="B25" s="62"/>
-      <c r="C25" s="35" t="s">
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="76"/>
+      <c r="C25" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="35"/>
+      <c r="D25" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-    </row>
-    <row r="26" spans="2:7" ht="17">
-      <c r="B26" s="62"/>
-      <c r="C26" s="35" t="s">
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="76"/>
+      <c r="C26" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="35"/>
+      <c r="D26" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-    </row>
-    <row r="27" spans="2:7" ht="17">
-      <c r="B27" s="64" t="s">
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="35"/>
+      <c r="D27" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-    </row>
-    <row r="28" spans="2:7" ht="17">
-      <c r="B28" s="64"/>
-      <c r="C28" s="35" t="s">
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="78"/>
+      <c r="C28" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="35"/>
+      <c r="D28" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-    </row>
-    <row r="29" spans="2:7" ht="17">
-      <c r="B29" s="65"/>
-      <c r="C29" s="35" t="s">
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="79"/>
+      <c r="C29" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="35"/>
+      <c r="D29" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-    </row>
-    <row r="30" spans="2:7" ht="17">
-      <c r="B30" s="64" t="s">
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="35"/>
+      <c r="D30" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-    </row>
-    <row r="31" spans="2:7" ht="17">
-      <c r="B31" s="64"/>
-      <c r="C31" s="35" t="s">
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="78"/>
+      <c r="C31" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="35"/>
+      <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-    </row>
-    <row r="32" spans="2:7" ht="17">
-      <c r="B32" s="64"/>
-      <c r="C32" s="35" t="s">
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="78"/>
+      <c r="C32" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="35"/>
+      <c r="D32" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-    </row>
-    <row r="33" spans="2:7" ht="17">
-      <c r="B33" s="65"/>
-      <c r="C33" s="35" t="s">
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="79"/>
+      <c r="C33" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="35"/>
+      <c r="D33" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-    </row>
-    <row r="34" spans="2:7" ht="17">
-      <c r="B34" s="66" t="s">
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="35"/>
+      <c r="D34" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-    </row>
-    <row r="35" spans="2:7" ht="17">
-      <c r="B35" s="62" t="s">
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="35"/>
+      <c r="D35" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E35" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G35" s="35"/>
-    </row>
-    <row r="36" spans="2:7" ht="17">
-      <c r="B36" s="62"/>
-      <c r="C36" s="35" t="s">
+      <c r="G35" s="28"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="76"/>
+      <c r="C36" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="35"/>
+      <c r="D36" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E36" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G36" s="35"/>
-    </row>
-    <row r="37" spans="2:7" ht="17">
-      <c r="B37" s="62"/>
-      <c r="C37" s="35" t="s">
+      <c r="G36" s="28"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="76"/>
+      <c r="C37" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="35"/>
+      <c r="D37" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E37" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G37" s="35"/>
-    </row>
-    <row r="38" spans="2:7" ht="17">
-      <c r="B38" s="63" t="s">
+      <c r="G37" s="28"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="D38" s="35"/>
+      <c r="D38" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E38" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G38" s="35"/>
-    </row>
-    <row r="39" spans="2:7" ht="17">
-      <c r="B39" s="65"/>
-      <c r="C39" s="35" t="s">
+      <c r="G38" s="28"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="79"/>
+      <c r="C39" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="D39" s="35"/>
+      <c r="D39" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E39" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G39" s="35"/>
-    </row>
-    <row r="40" spans="2:7" ht="17">
-      <c r="B40" s="67" t="s">
+      <c r="G39" s="28"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="D40" s="35"/>
+      <c r="D40" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-    </row>
-    <row r="41" spans="2:7" ht="17">
-      <c r="B41" s="67"/>
-      <c r="C41" s="35" t="s">
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="80"/>
+      <c r="C41" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="D41" s="35"/>
+      <c r="D41" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
     </row>
     <row r="42" spans="2:7" ht="30">
-      <c r="B42" s="143" t="s">
+      <c r="B42" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="144" t="s">
+      <c r="C42" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="145"/>
-      <c r="E42" s="146"/>
-      <c r="F42" s="146" t="s">
-        <v>0</v>
-      </c>
-      <c r="G42" s="145"/>
+      <c r="D42" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B26"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3194,36 +3264,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7561663B-E144-AC49-97DA-5BD8F73237F4}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="33.5" customWidth="1"/>
-    <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="33.453125" customWidth="1"/>
+    <col min="3" max="3" width="30.453125" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.36328125" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="32" customHeight="1">
+    <row r="2" spans="2:9" ht="31.95" customHeight="1">
       <c r="C2" s="11"/>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="149" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="150"/>
-      <c r="H2" s="147" t="s">
+      <c r="G2" s="86"/>
+      <c r="H2" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="148"/>
+      <c r="I2" s="82"/>
     </row>
     <row r="3" spans="2:9">
       <c r="D3" s="2" t="s">
@@ -3246,7 +3316,7 @@
       </c>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="87" t="s">
         <v>200</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -3264,7 +3334,7 @@
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="152"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="7" t="s">
         <v>206</v>
       </c>
@@ -3297,7 +3367,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="2:9" ht="17">
+    <row r="7" spans="2:9">
       <c r="B7" s="12" t="s">
         <v>199</v>
       </c>
@@ -3394,306 +3464,306 @@
       <selection activeCell="A21" sqref="A21:H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="51.6640625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="34.5" style="17" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="17" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="17"/>
+    <col min="1" max="1" width="8.6328125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="28.6328125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="51.6328125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="34.453125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" style="14" customWidth="1"/>
+    <col min="6" max="16384" width="8.81640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.75" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:5" ht="31.8" customHeight="1">
+      <c r="A1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:5" ht="58.75" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+    </row>
+    <row r="2" spans="1:5" ht="58.8" customHeight="1">
+      <c r="A2" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="18"/>
-    </row>
-    <row r="3" spans="1:5" ht="58.75" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="D2" s="93"/>
+    </row>
+    <row r="3" spans="1:5" ht="58.8" customHeight="1">
+      <c r="A3" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="19"/>
+      <c r="D3" s="94"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-    </row>
-    <row r="5" spans="1:5" ht="25" customHeight="1">
-      <c r="A5" s="21" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:5" ht="25.05" customHeight="1">
+      <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="25" customHeight="1">
-      <c r="A6" s="22">
+    <row r="6" spans="1:5" ht="25.05" customHeight="1">
+      <c r="A6" s="17">
         <v>1</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="18">
         <v>268000</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="42" customHeight="1">
-      <c r="A7" s="22">
+      <c r="A7" s="17">
         <v>2</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="25" customHeight="1">
-      <c r="A8" s="25">
+    <row r="8" spans="1:5" ht="25.05" customHeight="1">
+      <c r="A8" s="95">
         <v>3</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="21">
         <v>20000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="25" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29" t="s">
+    <row r="9" spans="1:5" ht="25.05" customHeight="1">
+      <c r="A9" s="96"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="31" customFormat="1" ht="25" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29" t="s">
+    <row r="10" spans="1:5" s="24" customFormat="1" ht="25.05" customHeight="1">
+      <c r="A10" s="96"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="30"/>
-    </row>
-    <row r="11" spans="1:5" ht="25" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29" t="s">
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="1:5" ht="25.05" customHeight="1">
+      <c r="A11" s="96"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="78" customHeight="1">
-      <c r="A12" s="32">
+      <c r="A12" s="25">
         <v>3</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="25" customHeight="1">
-      <c r="A13" s="36" t="s">
+    <row r="13" spans="1:5" ht="25.05" customHeight="1">
+      <c r="A13" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-    </row>
-    <row r="14" spans="1:5" ht="25" customHeight="1">
-      <c r="A14" s="37" t="s">
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+    </row>
+    <row r="14" spans="1:5" ht="25.05" customHeight="1">
+      <c r="A14" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="31.25" customHeight="1">
-      <c r="A15" s="39">
+    <row r="15" spans="1:5" ht="31.2" customHeight="1">
+      <c r="A15" s="31">
         <v>1</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="25" customHeight="1">
-      <c r="A16" s="39">
+    <row r="16" spans="1:5" ht="25.05" customHeight="1">
+      <c r="A16" s="31">
         <v>2</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="25" customHeight="1">
-      <c r="A17" s="39">
+    <row r="17" spans="1:4" ht="25.05" customHeight="1">
+      <c r="A17" s="31">
         <v>3</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="25" customHeight="1">
-      <c r="A18" s="39">
+    <row r="18" spans="1:4" ht="25.05" customHeight="1">
+      <c r="A18" s="31">
         <v>4</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="25" customHeight="1">
-      <c r="A19" s="39">
+    <row r="19" spans="1:4" ht="25.05" customHeight="1">
+      <c r="A19" s="31">
         <v>5</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="25" customHeight="1">
-      <c r="A20" s="39">
+    <row r="20" spans="1:4" ht="25.05" customHeight="1">
+      <c r="A20" s="31">
         <v>6</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="25" customHeight="1">
-      <c r="A21" s="39">
+    <row r="21" spans="1:4" ht="25.05" customHeight="1">
+      <c r="A21" s="31">
         <v>7</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="25" customHeight="1">
-      <c r="A22" s="39">
+    <row r="22" spans="1:4" ht="25.05" customHeight="1">
+      <c r="A22" s="31">
         <v>8</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="25" customHeight="1">
-      <c r="A23" s="39">
+    <row r="23" spans="1:4" ht="25.05" customHeight="1">
+      <c r="A23" s="31">
         <v>9</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="31" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="36" customHeight="1">
-      <c r="A24" s="41"/>
-      <c r="B24" s="42" t="s">
+      <c r="A24" s="33"/>
+      <c r="B24" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="43"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="91"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -3723,725 +3793,737 @@
       <selection activeCell="A21" sqref="A21:H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="17" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="17"/>
+    <col min="1" max="1" width="8.6328125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="25.81640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="39.36328125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" style="14" customWidth="1"/>
+    <col min="6" max="16384" width="8.81640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:4" ht="24.6">
+      <c r="A1" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-    </row>
-    <row r="2" spans="1:4" ht="31" customHeight="1">
-      <c r="A2" s="45" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+    </row>
+    <row r="2" spans="1:4" ht="31.05" customHeight="1">
+      <c r="A2" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46"/>
-    </row>
-    <row r="3" spans="1:4" ht="50" customHeight="1">
-      <c r="A3" s="47" t="s">
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="34"/>
+    </row>
+    <row r="3" spans="1:4" ht="49.95" customHeight="1">
+      <c r="A3" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-    </row>
-    <row r="4" spans="1:4" ht="17">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-    </row>
-    <row r="5" spans="1:4" ht="17">
-      <c r="A5" s="50" t="s">
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="35"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="105"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="50"/>
-    </row>
-    <row r="6" spans="1:4" ht="17">
-      <c r="A6" s="53" t="s">
+      <c r="C5" s="107"/>
+      <c r="D5" s="36"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="35" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="55" customHeight="1">
-      <c r="A7" s="56">
+    <row r="7" spans="1:4" ht="55.05" customHeight="1">
+      <c r="A7" s="37">
         <v>1</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="46" t="s">
+      <c r="C7" s="99"/>
+      <c r="D7" s="34" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1">
-      <c r="A8" s="56">
+      <c r="A8" s="37">
         <v>2</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58">
+      <c r="C8" s="99"/>
+      <c r="D8" s="38">
         <v>198000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="51">
-      <c r="A9" s="32">
+    <row r="9" spans="1:4" ht="45">
+      <c r="A9" s="25">
         <v>3</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="48" t="s">
+      <c r="C9" s="100"/>
+      <c r="D9" s="35" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="21">
-      <c r="A10" s="60" t="s">
+    <row r="10" spans="1:4" ht="20.399999999999999">
+      <c r="A10" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-    </row>
-    <row r="11" spans="1:4" ht="17">
-      <c r="A11" s="61" t="s">
+      <c r="B10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="39" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17">
-      <c r="A12" s="35">
+    <row r="12" spans="1:4">
+      <c r="A12" s="28">
         <v>1</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17">
-      <c r="A13" s="35">
+    <row r="13" spans="1:4">
+      <c r="A13" s="28">
         <v>2</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="35" t="s">
+      <c r="B13" s="76"/>
+      <c r="C13" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="17">
-      <c r="A14" s="35">
+    <row r="14" spans="1:4">
+      <c r="A14" s="28">
         <v>3</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="35" t="s">
+      <c r="B14" s="76"/>
+      <c r="C14" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="17">
-      <c r="A15" s="35">
+    <row r="15" spans="1:4">
+      <c r="A15" s="28">
         <v>4</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="35" t="s">
+      <c r="B15" s="76"/>
+      <c r="C15" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17">
-      <c r="A16" s="35">
+    <row r="16" spans="1:4">
+      <c r="A16" s="28">
         <v>5</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="35" t="s">
+      <c r="B16" s="76"/>
+      <c r="C16" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17">
-      <c r="A17" s="35">
+    <row r="17" spans="1:4">
+      <c r="A17" s="28">
         <v>6</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="35" t="s">
+      <c r="B17" s="76"/>
+      <c r="C17" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17">
-      <c r="A18" s="35">
+    <row r="18" spans="1:4">
+      <c r="A18" s="28">
         <v>7</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17">
-      <c r="A19" s="35">
+    <row r="19" spans="1:4">
+      <c r="A19" s="28">
         <v>8</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="35" t="s">
+      <c r="B19" s="78"/>
+      <c r="C19" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17">
-      <c r="A20" s="35">
+    <row r="20" spans="1:4">
+      <c r="A20" s="28">
         <v>9</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="35" t="s">
+      <c r="B20" s="78"/>
+      <c r="C20" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17">
-      <c r="A21" s="35">
+    <row r="21" spans="1:4">
+      <c r="A21" s="28">
         <v>10</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="35" t="s">
+      <c r="B21" s="78"/>
+      <c r="C21" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17">
-      <c r="A22" s="35">
+    <row r="22" spans="1:4">
+      <c r="A22" s="28">
         <v>11</v>
       </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="35" t="s">
+      <c r="B22" s="78"/>
+      <c r="C22" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17">
-      <c r="A23" s="35">
+    <row r="23" spans="1:4">
+      <c r="A23" s="28">
         <v>12</v>
       </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="35" t="s">
+      <c r="B23" s="78"/>
+      <c r="C23" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17">
-      <c r="A24" s="35">
+    <row r="24" spans="1:4">
+      <c r="A24" s="28">
         <v>13</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="35" t="s">
+      <c r="B24" s="78"/>
+      <c r="C24" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17">
-      <c r="A25" s="35">
+    <row r="25" spans="1:4">
+      <c r="A25" s="28">
         <v>14</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17">
-      <c r="A26" s="35">
+    <row r="26" spans="1:4">
+      <c r="A26" s="28">
         <v>15</v>
       </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="35" t="s">
+      <c r="B26" s="76"/>
+      <c r="C26" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17">
-      <c r="A27" s="35">
+    <row r="27" spans="1:4">
+      <c r="A27" s="28">
         <v>16</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="35" t="s">
+      <c r="B27" s="76"/>
+      <c r="C27" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17">
-      <c r="A28" s="35">
+    <row r="28" spans="1:4">
+      <c r="A28" s="28">
         <v>17</v>
       </c>
-      <c r="B28" s="62"/>
-      <c r="C28" s="35" t="s">
+      <c r="B28" s="76"/>
+      <c r="C28" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17">
-      <c r="A29" s="35">
+    <row r="29" spans="1:4">
+      <c r="A29" s="28">
         <v>18</v>
       </c>
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17">
-      <c r="A30" s="35">
+    <row r="30" spans="1:4">
+      <c r="A30" s="28">
         <v>19</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="35" t="s">
+      <c r="B30" s="76"/>
+      <c r="C30" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17">
-      <c r="A31" s="35">
+    <row r="31" spans="1:4">
+      <c r="A31" s="28">
         <v>20</v>
       </c>
-      <c r="B31" s="62"/>
-      <c r="C31" s="35" t="s">
+      <c r="B31" s="76"/>
+      <c r="C31" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17">
-      <c r="A32" s="35">
+    <row r="32" spans="1:4">
+      <c r="A32" s="28">
         <v>21</v>
       </c>
-      <c r="B32" s="62"/>
-      <c r="C32" s="35" t="s">
+      <c r="B32" s="76"/>
+      <c r="C32" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17">
-      <c r="A33" s="35">
+    <row r="33" spans="1:4">
+      <c r="A33" s="28">
         <v>22</v>
       </c>
-      <c r="B33" s="62"/>
-      <c r="C33" s="35" t="s">
+      <c r="B33" s="76"/>
+      <c r="C33" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17">
-      <c r="A34" s="35">
+    <row r="34" spans="1:4">
+      <c r="A34" s="28">
         <v>23</v>
       </c>
-      <c r="B34" s="62"/>
-      <c r="C34" s="35" t="s">
+      <c r="B34" s="76"/>
+      <c r="C34" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17">
-      <c r="A35" s="35">
+    <row r="35" spans="1:4">
+      <c r="A35" s="28">
         <v>24</v>
       </c>
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17">
-      <c r="A36" s="35">
+    <row r="36" spans="1:4">
+      <c r="A36" s="28">
         <v>25</v>
       </c>
-      <c r="B36" s="64"/>
-      <c r="C36" s="35" t="s">
+      <c r="B36" s="78"/>
+      <c r="C36" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17">
-      <c r="A37" s="35">
+    <row r="37" spans="1:4">
+      <c r="A37" s="28">
         <v>26</v>
       </c>
-      <c r="B37" s="65"/>
-      <c r="C37" s="35" t="s">
+      <c r="B37" s="79"/>
+      <c r="C37" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17">
-      <c r="A38" s="35">
+    <row r="38" spans="1:4">
+      <c r="A38" s="28">
         <v>27</v>
       </c>
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17">
-      <c r="A39" s="35">
+    <row r="39" spans="1:4">
+      <c r="A39" s="28">
         <v>28</v>
       </c>
-      <c r="B39" s="64"/>
-      <c r="C39" s="35" t="s">
+      <c r="B39" s="78"/>
+      <c r="C39" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17">
-      <c r="A40" s="35">
+    <row r="40" spans="1:4">
+      <c r="A40" s="28">
         <v>29</v>
       </c>
-      <c r="B40" s="64"/>
-      <c r="C40" s="35" t="s">
+      <c r="B40" s="78"/>
+      <c r="C40" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17">
-      <c r="A41" s="35">
+    <row r="41" spans="1:4">
+      <c r="A41" s="28">
         <v>30</v>
       </c>
-      <c r="B41" s="65"/>
-      <c r="C41" s="35" t="s">
+      <c r="B41" s="79"/>
+      <c r="C41" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17">
-      <c r="A42" s="35">
+    <row r="42" spans="1:4">
+      <c r="A42" s="28">
         <v>31</v>
       </c>
-      <c r="B42" s="66" t="s">
+      <c r="B42" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17">
-      <c r="A43" s="35">
+    <row r="43" spans="1:4">
+      <c r="A43" s="28">
         <v>32</v>
       </c>
-      <c r="B43" s="62" t="s">
+      <c r="B43" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="D43" s="35" t="s">
+      <c r="D43" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="17">
-      <c r="A44" s="35">
+    <row r="44" spans="1:4">
+      <c r="A44" s="28">
         <v>33</v>
       </c>
-      <c r="B44" s="62"/>
-      <c r="C44" s="35" t="s">
+      <c r="B44" s="76"/>
+      <c r="C44" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D44" s="35" t="s">
+      <c r="D44" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="17">
-      <c r="A45" s="35">
+    <row r="45" spans="1:4">
+      <c r="A45" s="28">
         <v>34</v>
       </c>
-      <c r="B45" s="62"/>
-      <c r="C45" s="35" t="s">
+      <c r="B45" s="76"/>
+      <c r="C45" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="D45" s="35" t="s">
+      <c r="D45" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="17">
-      <c r="A46" s="35">
+    <row r="46" spans="1:4">
+      <c r="A46" s="28">
         <v>35</v>
       </c>
-      <c r="B46" s="63" t="s">
+      <c r="B46" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="35" t="s">
+      <c r="D46" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17">
-      <c r="A47" s="35">
+    <row r="47" spans="1:4">
+      <c r="A47" s="28">
         <v>36</v>
       </c>
-      <c r="B47" s="65"/>
-      <c r="C47" s="35" t="s">
+      <c r="B47" s="79"/>
+      <c r="C47" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="D47" s="35" t="s">
+      <c r="D47" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="34">
-      <c r="A48" s="35">
+    <row r="48" spans="1:4" ht="30">
+      <c r="A48" s="28">
         <v>37</v>
       </c>
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="C48" s="33" t="s">
+      <c r="C48" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="D48" s="35" t="s">
+      <c r="D48" s="28" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="17">
-      <c r="A49" s="35">
+    <row r="49" spans="1:4">
+      <c r="A49" s="28">
         <v>38</v>
       </c>
-      <c r="B49" s="67" t="s">
+      <c r="B49" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="D49" s="35" t="s">
+      <c r="D49" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17">
-      <c r="A50" s="35">
+    <row r="50" spans="1:4">
+      <c r="A50" s="28">
         <v>39</v>
       </c>
-      <c r="B50" s="67"/>
-      <c r="C50" s="35" t="s">
+      <c r="B50" s="80"/>
+      <c r="C50" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="D50" s="35" t="s">
+      <c r="D50" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17">
-      <c r="A51" s="35">
+    <row r="51" spans="1:4">
+      <c r="A51" s="28">
         <v>40</v>
       </c>
-      <c r="B51" s="67"/>
-      <c r="C51" s="35" t="s">
+      <c r="B51" s="80"/>
+      <c r="C51" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="D51" s="35" t="s">
+      <c r="D51" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="17">
-      <c r="A52" s="35">
+    <row r="52" spans="1:4">
+      <c r="A52" s="28">
         <v>41</v>
       </c>
-      <c r="B52" s="67"/>
-      <c r="C52" s="35" t="s">
+      <c r="B52" s="80"/>
+      <c r="C52" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="D52" s="35" t="s">
+      <c r="D52" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17">
-      <c r="A53" s="35">
+    <row r="53" spans="1:4">
+      <c r="A53" s="28">
         <v>42</v>
       </c>
-      <c r="B53" s="67"/>
-      <c r="C53" s="35" t="s">
+      <c r="B53" s="80"/>
+      <c r="C53" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="D53" s="35" t="s">
+      <c r="D53" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17">
-      <c r="A54" s="35">
+    <row r="54" spans="1:4">
+      <c r="A54" s="28">
         <v>43</v>
       </c>
-      <c r="B54" s="67" t="s">
+      <c r="B54" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="D54" s="35" t="s">
+      <c r="D54" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17">
-      <c r="A55" s="35">
+    <row r="55" spans="1:4">
+      <c r="A55" s="28">
         <v>44</v>
       </c>
-      <c r="B55" s="67"/>
-      <c r="C55" s="35" t="s">
+      <c r="B55" s="80"/>
+      <c r="C55" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="D55" s="35" t="s">
+      <c r="D55" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="34">
-      <c r="A56" s="35">
+    <row r="56" spans="1:4">
+      <c r="A56" s="28">
         <v>45</v>
       </c>
-      <c r="B56" s="62" t="s">
+      <c r="B56" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="C56" s="35" t="s">
+      <c r="C56" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="D56" s="35" t="s">
+      <c r="D56" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17">
-      <c r="A57" s="35">
+    <row r="57" spans="1:4">
+      <c r="A57" s="28">
         <v>46</v>
       </c>
-      <c r="B57" s="62"/>
-      <c r="C57" s="35" t="s">
+      <c r="B57" s="76"/>
+      <c r="C57" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="D57" s="35" t="s">
+      <c r="D57" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17">
-      <c r="A58" s="35">
+    <row r="58" spans="1:4">
+      <c r="A58" s="28">
         <v>47</v>
       </c>
-      <c r="B58" s="62"/>
-      <c r="C58" s="35" t="s">
+      <c r="B58" s="76"/>
+      <c r="C58" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="D58" s="35" t="s">
+      <c r="D58" s="28" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="68"/>
-      <c r="B59" s="69"/>
-      <c r="C59" s="54" t="s">
+      <c r="A59" s="41"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="D59" s="55"/>
+      <c r="D59" s="98"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <mergeCells count="22">
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B12:B17"/>
     <mergeCell ref="B49:B53"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="B56:B58"/>
@@ -4452,18 +4534,6 @@
     <mergeCell ref="B38:B41"/>
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4483,595 +4553,629 @@
       <selection activeCell="A21" sqref="A21:H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="41.1640625" style="74" customWidth="1"/>
-    <col min="2" max="2" width="1.83203125" style="74" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="74" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="74" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="74" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="74" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="74" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" style="137" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="74"/>
+    <col min="1" max="1" width="41.1796875" style="44" customWidth="1"/>
+    <col min="2" max="2" width="1.81640625" style="44" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" style="44" customWidth="1"/>
+    <col min="4" max="4" width="9.36328125" style="44" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" style="44" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="44" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="44" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" style="66" customWidth="1"/>
+    <col min="9" max="16384" width="8.81640625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23" customHeight="1">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:9" ht="22.95" customHeight="1">
+      <c r="A1" s="144" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="73"/>
-    </row>
-    <row r="2" spans="1:9" ht="38" customHeight="1">
-      <c r="A2" s="75"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="73"/>
-    </row>
-    <row r="3" spans="1:9" ht="17" customHeight="1">
-      <c r="A3" s="78" t="s">
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="43"/>
+    </row>
+    <row r="2" spans="1:9" ht="37.950000000000003" customHeight="1">
+      <c r="A2" s="147"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="43"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.95" customHeight="1">
+      <c r="A3" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80"/>
-    </row>
-    <row r="4" spans="1:9" ht="17" customHeight="1">
-      <c r="A4" s="81" t="s">
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="118"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.95" customHeight="1">
+      <c r="A4" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="139" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="83"/>
-    </row>
-    <row r="5" spans="1:9" ht="17" customHeight="1">
-      <c r="A5" s="81" t="s">
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="140"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.95" customHeight="1">
+      <c r="A5" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="84">
+      <c r="B5" s="151">
         <v>9.1330106311313101E+17</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="85"/>
-    </row>
-    <row r="6" spans="1:9" ht="17" customHeight="1">
-      <c r="A6" s="81" t="s">
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="152"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.95" customHeight="1">
+      <c r="A6" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="139" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="83"/>
-    </row>
-    <row r="7" spans="1:9" ht="17" customHeight="1">
-      <c r="A7" s="81" t="s">
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="140"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.95" customHeight="1">
+      <c r="A7" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="139" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="83"/>
-    </row>
-    <row r="8" spans="1:9" ht="17" customHeight="1">
-      <c r="A8" s="81" t="s">
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="140"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.95" customHeight="1">
+      <c r="A8" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="139" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="83"/>
-    </row>
-    <row r="9" spans="1:9" s="87" customFormat="1" ht="17" customHeight="1">
-      <c r="A9" s="86" t="s">
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="140"/>
+    </row>
+    <row r="9" spans="1:9" s="47" customFormat="1" ht="16.95" customHeight="1">
+      <c r="A9" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="139" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="83"/>
-    </row>
-    <row r="10" spans="1:9" s="87" customFormat="1" ht="17" customHeight="1">
-      <c r="A10" s="86" t="s">
+      <c r="C9" s="139"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="140"/>
+    </row>
+    <row r="10" spans="1:9" s="47" customFormat="1" ht="16.95" customHeight="1">
+      <c r="A10" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="82">
+      <c r="B10" s="139">
         <v>13651666506</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="83"/>
-    </row>
-    <row r="11" spans="1:9" s="87" customFormat="1" ht="17" customHeight="1">
-      <c r="A11" s="86" t="s">
+      <c r="C10" s="139"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="140"/>
+    </row>
+    <row r="11" spans="1:9" s="47" customFormat="1" ht="16.95" customHeight="1">
+      <c r="A11" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="116" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="90"/>
-    </row>
-    <row r="12" spans="1:9" s="87" customFormat="1" ht="17" customHeight="1">
-      <c r="A12" s="81" t="s">
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="142"/>
+    </row>
+    <row r="12" spans="1:9" s="47" customFormat="1" ht="16.95" customHeight="1">
+      <c r="A12" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="139" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="83"/>
-    </row>
-    <row r="13" spans="1:9" s="87" customFormat="1" ht="17" customHeight="1">
-      <c r="A13" s="81" t="s">
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="140"/>
+    </row>
+    <row r="13" spans="1:9" s="47" customFormat="1" ht="16.95" customHeight="1">
+      <c r="A13" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="B13" s="91">
+      <c r="B13" s="143">
         <v>44712</v>
       </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="83"/>
-    </row>
-    <row r="14" spans="1:9" s="87" customFormat="1" ht="17" customHeight="1">
-      <c r="A14" s="92" t="s">
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="140"/>
+    </row>
+    <row r="14" spans="1:9" s="47" customFormat="1" ht="16.95" customHeight="1">
+      <c r="A14" s="130" t="s">
         <v>145</v>
       </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="94" t="s">
+      <c r="B14" s="131"/>
+      <c r="C14" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="94" t="s">
+      <c r="D14" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="E14" s="94" t="s">
+      <c r="E14" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="F14" s="94" t="s">
+      <c r="F14" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="G14" s="94" t="s">
+      <c r="G14" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="H14" s="95" t="s">
+      <c r="H14" s="49" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="87" customFormat="1" ht="17" customHeight="1">
-      <c r="A15" s="96" t="s">
+    <row r="15" spans="1:9" s="47" customFormat="1" ht="16.95" customHeight="1">
+      <c r="A15" s="132" t="s">
         <v>152</v>
       </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="98" t="s">
+      <c r="B15" s="133"/>
+      <c r="C15" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="D15" s="99">
+      <c r="D15" s="51">
         <v>12</v>
       </c>
-      <c r="E15" s="98">
+      <c r="E15" s="50">
         <v>125000</v>
       </c>
-      <c r="F15" s="98">
+      <c r="F15" s="50">
         <v>41800</v>
       </c>
-      <c r="G15" s="100">
+      <c r="G15" s="52">
         <v>1</v>
       </c>
-      <c r="H15" s="101">
+      <c r="H15" s="53">
         <v>41800</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="87" customFormat="1" ht="17" customHeight="1">
-      <c r="A16" s="96" t="s">
+    <row r="16" spans="1:9" s="47" customFormat="1" ht="16.95" customHeight="1">
+      <c r="A16" s="132" t="s">
         <v>154</v>
       </c>
-      <c r="B16" s="97"/>
-      <c r="C16" s="98" t="s">
+      <c r="B16" s="133"/>
+      <c r="C16" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="D16" s="99">
+      <c r="D16" s="51">
         <v>12</v>
       </c>
-      <c r="E16" s="98">
+      <c r="E16" s="50">
         <v>9</v>
       </c>
-      <c r="F16" s="98">
+      <c r="F16" s="50">
         <v>3</v>
       </c>
-      <c r="G16" s="102">
+      <c r="G16" s="54">
         <v>5000</v>
       </c>
-      <c r="H16" s="103">
+      <c r="H16" s="55">
         <v>15000</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="110" customFormat="1" ht="16">
-      <c r="A17" s="104" t="s">
+    <row r="17" spans="1:8" s="59" customFormat="1" ht="15">
+      <c r="A17" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="106" t="s">
+      <c r="B17" s="57"/>
+      <c r="C17" s="134" t="s">
         <v>156</v>
       </c>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="109">
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="58">
         <f>H15+H16</f>
         <v>56800</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="87" customFormat="1" ht="17" customHeight="1">
-      <c r="A18" s="111" t="s">
+    <row r="18" spans="1:8" s="47" customFormat="1" ht="16.95" customHeight="1">
+      <c r="A18" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="B18" s="112"/>
-      <c r="C18" s="113" t="s">
+      <c r="B18" s="138"/>
+      <c r="C18" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="D18" s="113" t="s">
+      <c r="D18" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="E18" s="113">
+      <c r="E18" s="60">
         <v>100000</v>
       </c>
-      <c r="F18" s="113">
+      <c r="F18" s="60">
         <v>60000</v>
       </c>
-      <c r="G18" s="114">
+      <c r="G18" s="61">
         <v>1</v>
       </c>
-      <c r="H18" s="115">
+      <c r="H18" s="62">
         <v>60000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="110" customFormat="1" ht="16">
-      <c r="A19" s="104" t="s">
+    <row r="19" spans="1:8" s="59" customFormat="1" ht="15">
+      <c r="A19" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="B19" s="105"/>
-      <c r="C19" s="106" t="s">
+      <c r="B19" s="57"/>
+      <c r="C19" s="134" t="s">
         <v>161</v>
       </c>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="109">
+      <c r="D19" s="135"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="58">
         <f>H17+H18</f>
         <v>116800</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="87" customFormat="1" ht="16">
-      <c r="A20" s="116" t="s">
+    <row r="20" spans="1:8" s="47" customFormat="1">
+      <c r="A20" s="123" t="s">
         <v>162</v>
       </c>
-      <c r="B20" s="117"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="80"/>
-    </row>
-    <row r="21" spans="1:8" s="87" customFormat="1" ht="38" customHeight="1">
-      <c r="A21" s="118" t="s">
+      <c r="B20" s="124"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="118"/>
+    </row>
+    <row r="21" spans="1:8" s="47" customFormat="1" ht="37.950000000000003" customHeight="1">
+      <c r="A21" s="125" t="s">
         <v>181</v>
       </c>
-      <c r="B21" s="119"/>
-      <c r="C21" s="120" t="s">
+      <c r="B21" s="126"/>
+      <c r="C21" s="127" t="s">
         <v>182</v>
       </c>
-      <c r="D21" s="121"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="122"/>
-    </row>
-    <row r="22" spans="1:8" s="87" customFormat="1" ht="16">
-      <c r="A22" s="123"/>
-      <c r="B22" s="124"/>
-      <c r="C22" s="88" t="s">
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="129"/>
+    </row>
+    <row r="22" spans="1:8" s="47" customFormat="1" ht="15">
+      <c r="A22" s="119"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="116" t="s">
         <v>183</v>
       </c>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="80"/>
-    </row>
-    <row r="23" spans="1:8" s="87" customFormat="1" ht="16">
-      <c r="A23" s="123"/>
-      <c r="B23" s="124"/>
-      <c r="C23" s="88" t="s">
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="118"/>
+    </row>
+    <row r="23" spans="1:8" s="47" customFormat="1" ht="15">
+      <c r="A23" s="119"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="116" t="s">
         <v>184</v>
       </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="80"/>
-    </row>
-    <row r="24" spans="1:8" s="87" customFormat="1" ht="16">
-      <c r="A24" s="123"/>
-      <c r="B24" s="124"/>
-      <c r="C24" s="88" t="s">
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="118"/>
+    </row>
+    <row r="24" spans="1:8" s="47" customFormat="1" ht="15">
+      <c r="A24" s="119"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="116" t="s">
         <v>185</v>
       </c>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="80"/>
-    </row>
-    <row r="25" spans="1:8" s="87" customFormat="1" ht="16">
-      <c r="A25" s="123"/>
-      <c r="B25" s="124"/>
-      <c r="C25" s="88" t="s">
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="118"/>
+    </row>
+    <row r="25" spans="1:8" s="47" customFormat="1" ht="15">
+      <c r="A25" s="119"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="116" t="s">
         <v>186</v>
       </c>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="80"/>
-    </row>
-    <row r="26" spans="1:8" s="87" customFormat="1" ht="16">
-      <c r="A26" s="123"/>
-      <c r="B26" s="124"/>
-      <c r="C26" s="88" t="s">
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="118"/>
+    </row>
+    <row r="26" spans="1:8" s="47" customFormat="1" ht="15">
+      <c r="A26" s="119"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="116" t="s">
         <v>187</v>
       </c>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="80"/>
-    </row>
-    <row r="27" spans="1:8" s="87" customFormat="1" ht="16">
-      <c r="A27" s="125" t="s">
+      <c r="D26" s="117"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="118"/>
+    </row>
+    <row r="27" spans="1:8" s="47" customFormat="1" ht="15">
+      <c r="A27" s="114" t="s">
         <v>188</v>
       </c>
-      <c r="B27" s="124"/>
-      <c r="C27" s="88" t="s">
+      <c r="B27" s="115"/>
+      <c r="C27" s="116" t="s">
         <v>189</v>
       </c>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="80"/>
-    </row>
-    <row r="28" spans="1:8" s="87" customFormat="1" ht="16">
-      <c r="A28" s="123"/>
-      <c r="B28" s="124"/>
-      <c r="C28" s="88" t="s">
+      <c r="D27" s="117"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="118"/>
+    </row>
+    <row r="28" spans="1:8" s="47" customFormat="1" ht="15">
+      <c r="A28" s="119"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="116" t="s">
         <v>190</v>
       </c>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="80"/>
-    </row>
-    <row r="29" spans="1:8" s="87" customFormat="1" ht="16">
-      <c r="A29" s="123"/>
-      <c r="B29" s="124"/>
-      <c r="C29" s="88" t="s">
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="118"/>
+    </row>
+    <row r="29" spans="1:8" s="47" customFormat="1" ht="15">
+      <c r="A29" s="119"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="116" t="s">
         <v>191</v>
       </c>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="80"/>
-    </row>
-    <row r="30" spans="1:8" s="87" customFormat="1" ht="16">
-      <c r="A30" s="125" t="s">
+      <c r="D29" s="117"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="118"/>
+    </row>
+    <row r="30" spans="1:8" s="47" customFormat="1" ht="15">
+      <c r="A30" s="114" t="s">
         <v>192</v>
       </c>
-      <c r="B30" s="124"/>
-      <c r="C30" s="88" t="s">
+      <c r="B30" s="115"/>
+      <c r="C30" s="116" t="s">
         <v>163</v>
       </c>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="80"/>
-    </row>
-    <row r="31" spans="1:8" s="87" customFormat="1" ht="16">
-      <c r="A31" s="125"/>
-      <c r="B31" s="124"/>
-      <c r="C31" s="88" t="s">
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="118"/>
+    </row>
+    <row r="31" spans="1:8" s="47" customFormat="1" ht="15">
+      <c r="A31" s="114"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="80"/>
-    </row>
-    <row r="32" spans="1:8" s="87" customFormat="1" ht="16">
-      <c r="A32" s="123"/>
-      <c r="B32" s="124"/>
-      <c r="C32" s="88" t="s">
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="118"/>
+    </row>
+    <row r="32" spans="1:8" s="47" customFormat="1" ht="15">
+      <c r="A32" s="119"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="116" t="s">
         <v>165</v>
       </c>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="80"/>
-    </row>
-    <row r="33" spans="1:8" s="87" customFormat="1" ht="16">
-      <c r="A33" s="125" t="s">
+      <c r="D32" s="117"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="118"/>
+    </row>
+    <row r="33" spans="1:8" s="47" customFormat="1" ht="15">
+      <c r="A33" s="114" t="s">
         <v>166</v>
       </c>
-      <c r="B33" s="124"/>
-      <c r="C33" s="88" t="s">
+      <c r="B33" s="115"/>
+      <c r="C33" s="116" t="s">
         <v>167</v>
       </c>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="80"/>
-    </row>
-    <row r="34" spans="1:8" s="87" customFormat="1" ht="16">
-      <c r="A34" s="125" t="s">
+      <c r="D33" s="117"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="118"/>
+    </row>
+    <row r="34" spans="1:8" s="47" customFormat="1" ht="15">
+      <c r="A34" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="126"/>
-      <c r="C34" s="127" t="s">
+      <c r="B34" s="63"/>
+      <c r="C34" s="120" t="s">
         <v>169</v>
       </c>
-      <c r="D34" s="128"/>
-      <c r="E34" s="128"/>
-      <c r="F34" s="128"/>
-      <c r="G34" s="128"/>
-      <c r="H34" s="129"/>
-    </row>
-    <row r="35" spans="1:8" s="87" customFormat="1" ht="16">
-      <c r="A35" s="123"/>
-      <c r="B35" s="126"/>
-      <c r="C35" s="127" t="s">
+      <c r="D34" s="121"/>
+      <c r="E34" s="121"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="121"/>
+      <c r="H34" s="122"/>
+    </row>
+    <row r="35" spans="1:8" s="47" customFormat="1" ht="15">
+      <c r="A35" s="119"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="120" t="s">
         <v>170</v>
       </c>
-      <c r="D35" s="128"/>
-      <c r="E35" s="128"/>
-      <c r="F35" s="128"/>
-      <c r="G35" s="128"/>
-      <c r="H35" s="129"/>
-    </row>
-    <row r="36" spans="1:8" s="87" customFormat="1" ht="16">
-      <c r="A36" s="125" t="s">
+      <c r="D35" s="121"/>
+      <c r="E35" s="121"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="121"/>
+      <c r="H35" s="122"/>
+    </row>
+    <row r="36" spans="1:8" s="47" customFormat="1" ht="15">
+      <c r="A36" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="B36" s="124"/>
-      <c r="C36" s="88" t="s">
+      <c r="B36" s="115"/>
+      <c r="C36" s="116" t="s">
         <v>176</v>
       </c>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="80"/>
-    </row>
-    <row r="37" spans="1:8" s="87" customFormat="1" ht="16">
-      <c r="A37" s="123"/>
-      <c r="B37" s="124"/>
-      <c r="C37" s="88" t="s">
+      <c r="D36" s="117"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="117"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="118"/>
+    </row>
+    <row r="37" spans="1:8" s="47" customFormat="1" ht="15">
+      <c r="A37" s="119"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="116" t="s">
         <v>177</v>
       </c>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="80"/>
-    </row>
-    <row r="38" spans="1:8" s="87" customFormat="1" ht="16">
-      <c r="A38" s="123"/>
-      <c r="B38" s="124"/>
-      <c r="C38" s="88" t="s">
+      <c r="D37" s="117"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="117"/>
+      <c r="G37" s="117"/>
+      <c r="H37" s="118"/>
+    </row>
+    <row r="38" spans="1:8" s="47" customFormat="1" ht="15">
+      <c r="A38" s="119"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="116" t="s">
         <v>178</v>
       </c>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="80"/>
-    </row>
-    <row r="39" spans="1:8" ht="43" customHeight="1">
-      <c r="A39" s="81" t="s">
+      <c r="D38" s="117"/>
+      <c r="E38" s="117"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="118"/>
+    </row>
+    <row r="39" spans="1:8" ht="43.05" customHeight="1">
+      <c r="A39" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="130"/>
-      <c r="C39" s="131" t="s">
+      <c r="B39" s="64"/>
+      <c r="C39" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="D39" s="132" t="s">
+      <c r="D39" s="109" t="s">
         <v>173</v>
       </c>
-      <c r="E39" s="132"/>
-      <c r="F39" s="132"/>
-      <c r="G39" s="132"/>
-      <c r="H39" s="133"/>
-    </row>
-    <row r="40" spans="1:8" ht="18" thickBot="1">
-      <c r="A40" s="134" t="s">
+      <c r="E39" s="109"/>
+      <c r="F39" s="109"/>
+      <c r="G39" s="109"/>
+      <c r="H39" s="110"/>
+    </row>
+    <row r="40" spans="1:8" ht="16.2" thickBot="1">
+      <c r="A40" s="111" t="s">
         <v>174</v>
       </c>
-      <c r="B40" s="135"/>
-      <c r="C40" s="135"/>
-      <c r="D40" s="135"/>
-      <c r="E40" s="135"/>
-      <c r="F40" s="135"/>
-      <c r="G40" s="135"/>
-      <c r="H40" s="136"/>
+      <c r="B40" s="112"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
+      <c r="G40" s="112"/>
+      <c r="H40" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:B26"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="A30:B32"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C32:H32"/>
     <mergeCell ref="D39:H39"/>
     <mergeCell ref="A40:H40"/>
     <mergeCell ref="A33:B33"/>
@@ -5083,40 +5187,6 @@
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="C37:H37"/>
     <mergeCell ref="C38:H38"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="A30:B32"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:B26"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/电签系统评估/供应商分析比较.xlsx
+++ b/电签系统评估/供应商分析比较.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ah0122875\Desktop\电签系统评估\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shixiaolin/Documents/git/transfer/电签系统评估/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA84CC2-F79F-4DEB-BA03-F82200E5397E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123BCFFC-D822-D34C-8465-B8DF9DA5ED69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{13850604-592A-394E-9E6D-CEE1130DC802}"/>
+    <workbookView xWindow="22520" yWindow="0" windowWidth="22280" windowHeight="25200" activeTab="1" xr2:uid="{13850604-592A-394E-9E6D-CEE1130DC802}"/>
   </bookViews>
   <sheets>
     <sheet name="Feature" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="212">
   <si>
     <t>√</t>
   </si>
@@ -879,18 +879,39 @@
     <t>维护费</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>法大大
+公有云</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法大大
+私有云</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不√直接通过系统解约，不能加盖作废章，需要签署作废协议</t>
+  </si>
+  <si>
+    <t>规划中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目实施费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="178" formatCode="\¥#,##0_);[Red]\(\¥#,##0\)"/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="177" formatCode="\¥#,##0_);[Red]\(\¥#,##0\)"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1134,6 +1155,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -1180,12 +1207,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1226,6 +1247,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="31">
     <border>
@@ -1626,14 +1653,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -1647,11 +1671,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1666,201 +1690,213 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="5" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="179" fontId="28" fillId="4" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="28" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="28" fillId="4" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="28" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="10" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="179" fontId="28" fillId="10" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="28" fillId="9" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1869,253 +1905,255 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="4" applyBorder="1"/>
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="31" fontId="28" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="15" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="31" fontId="28" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="179" fontId="28" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="179" fontId="28" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
-    <cellStyle name="常规 2" xfId="5" xr:uid="{4DFA4381-EEC8-FA47-B180-7BA969C5772D}"/>
-    <cellStyle name="常规 2 2" xfId="4" xr:uid="{0BD873E8-3F35-B041-9ECB-BC21CFE2D875}"/>
-    <cellStyle name="常规 2 3" xfId="6" xr:uid="{4A5DCCF3-0EE0-E64A-BF89-3E2A703DFF19}"/>
-    <cellStyle name="常规 3" xfId="3" xr:uid="{4DABF0CE-30DA-C94A-903A-CEE3823541B0}"/>
+  <cellStyles count="6">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="4" xr:uid="{4DFA4381-EEC8-FA47-B180-7BA969C5772D}"/>
+    <cellStyle name="常规 2 2" xfId="3" xr:uid="{0BD873E8-3F35-B041-9ECB-BC21CFE2D875}"/>
+    <cellStyle name="常规 2 3" xfId="5" xr:uid="{4A5DCCF3-0EE0-E64A-BF89-3E2A703DFF19}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{4DABF0CE-30DA-C94A-903A-CEE3823541B0}"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2307,7 +2345,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2603,26 +2641,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B345600C-3EC6-A545-A60E-E82B38A14FBE}">
-  <dimension ref="B2:G42"/>
+  <dimension ref="B2:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="32.1796875" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18" customHeight="1">
-      <c r="B2" s="71" t="s">
+    <row r="2" spans="2:8" ht="18" customHeight="1">
+      <c r="B2" s="75" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="75" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="73" t="s">
@@ -2632,22 +2672,26 @@
         <v>180</v>
       </c>
       <c r="G2" s="73" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="33" customHeight="1">
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
+        <v>207</v>
+      </c>
+      <c r="H2" s="73" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="33" customHeight="1">
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
       <c r="E3" s="74"/>
-      <c r="F3" s="75"/>
+      <c r="F3" s="77"/>
       <c r="G3" s="74"/>
-    </row>
-    <row r="4" spans="2:7" ht="16.95" customHeight="1">
-      <c r="B4" s="76" t="s">
+      <c r="H3" s="74"/>
+    </row>
+    <row r="4" spans="2:8" ht="17" customHeight="1">
+      <c r="B4" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="25" t="s">
         <v>66</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2659,11 +2703,16 @@
       <c r="F4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="28"/>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="76"/>
-      <c r="C5" s="28" t="s">
+      <c r="G4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="17">
+      <c r="B5" s="70"/>
+      <c r="C5" s="25" t="s">
         <v>68</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -2675,11 +2724,16 @@
       <c r="F5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="28"/>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="76"/>
-      <c r="C6" s="28" t="s">
+      <c r="G5" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="17">
+      <c r="B6" s="70"/>
+      <c r="C6" s="25" t="s">
         <v>69</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -2691,11 +2745,16 @@
       <c r="F6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="28"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="76"/>
-      <c r="C7" s="28" t="s">
+      <c r="G6" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="17">
+      <c r="B7" s="70"/>
+      <c r="C7" s="25" t="s">
         <v>195</v>
       </c>
       <c r="D7" s="1"/>
@@ -2705,11 +2764,16 @@
       <c r="F7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="28"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="76"/>
-      <c r="C8" s="28" t="s">
+      <c r="G7" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="17">
+      <c r="B8" s="70"/>
+      <c r="C8" s="25" t="s">
         <v>71</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -2721,11 +2785,16 @@
       <c r="F8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="76"/>
-      <c r="C9" s="28" t="s">
+      <c r="G8" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="17">
+      <c r="B9" s="70"/>
+      <c r="C9" s="25" t="s">
         <v>72</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -2737,13 +2806,18 @@
       <c r="F9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="28"/>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="77" t="s">
+      <c r="G9" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="17">
+      <c r="B10" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="25" t="s">
         <v>74</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2752,12 +2826,19 @@
       <c r="E10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="78"/>
-      <c r="C11" s="28" t="s">
+      <c r="F10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="17">
+      <c r="B11" s="68"/>
+      <c r="C11" s="25" t="s">
         <v>75</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2766,12 +2847,19 @@
       <c r="E11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="78"/>
-      <c r="C12" s="28" t="s">
+      <c r="F11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="17">
+      <c r="B12" s="68"/>
+      <c r="C12" s="25" t="s">
         <v>76</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -2780,12 +2868,19 @@
       <c r="E12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="78"/>
-      <c r="C13" s="28" t="s">
+      <c r="F12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="17">
+      <c r="B13" s="68"/>
+      <c r="C13" s="25" t="s">
         <v>77</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -2794,26 +2889,40 @@
       <c r="E13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="78"/>
-      <c r="C14" s="28" t="s">
+      <c r="F13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="85">
+      <c r="B14" s="68"/>
+      <c r="C14" s="25" t="s">
         <v>78</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="78"/>
-      <c r="C15" s="28" t="s">
+      <c r="E14" s="149" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="148" t="s">
+        <v>209</v>
+      </c>
+      <c r="H14" s="67" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="17">
+      <c r="B15" s="68"/>
+      <c r="C15" s="25" t="s">
         <v>79</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -2822,12 +2931,19 @@
       <c r="E15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="78"/>
-      <c r="C16" s="28" t="s">
+      <c r="F15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="17">
+      <c r="B16" s="68"/>
+      <c r="C16" s="25" t="s">
         <v>80</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -2836,14 +2952,21 @@
       <c r="E16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="76" t="s">
+      <c r="F16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="17">
+      <c r="B17" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="25" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -2855,11 +2978,16 @@
       <c r="F17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="28"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="76"/>
-      <c r="C18" s="28" t="s">
+      <c r="G17" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="17">
+      <c r="B18" s="70"/>
+      <c r="C18" s="25" t="s">
         <v>83</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -2871,11 +2999,16 @@
       <c r="F18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="28"/>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="76"/>
-      <c r="C19" s="28" t="s">
+      <c r="G18" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="17">
+      <c r="B19" s="70"/>
+      <c r="C19" s="25" t="s">
         <v>84</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -2887,11 +3020,16 @@
       <c r="F19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G19" s="28"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="76"/>
-      <c r="C20" s="28" t="s">
+      <c r="G19" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="17">
+      <c r="B20" s="70"/>
+      <c r="C20" s="25" t="s">
         <v>85</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -2903,13 +3041,18 @@
       <c r="F20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G20" s="28"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="76" t="s">
+      <c r="G20" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="17">
+      <c r="B21" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="25" t="s">
         <v>87</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -2918,12 +3061,19 @@
       <c r="E21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="76"/>
-      <c r="C22" s="28" t="s">
+      <c r="F21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="17">
+      <c r="B22" s="70"/>
+      <c r="C22" s="25" t="s">
         <v>88</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -2932,12 +3082,19 @@
       <c r="E22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="76"/>
-      <c r="C23" s="28" t="s">
+      <c r="F22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="17">
+      <c r="B23" s="70"/>
+      <c r="C23" s="25" t="s">
         <v>89</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -2946,12 +3103,19 @@
       <c r="E23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="76"/>
-      <c r="C24" s="28" t="s">
+      <c r="F23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="17">
+      <c r="B24" s="70"/>
+      <c r="C24" s="25" t="s">
         <v>90</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -2960,26 +3124,38 @@
       <c r="E24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="76"/>
-      <c r="C25" s="28" t="s">
+      <c r="F24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="17">
+      <c r="B25" s="70"/>
+      <c r="C25" s="25" t="s">
         <v>91</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="76"/>
-      <c r="C26" s="28" t="s">
+      <c r="E25" s="149" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="149" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="67"/>
+    </row>
+    <row r="26" spans="2:8" ht="17">
+      <c r="B26" s="70"/>
+      <c r="C26" s="25" t="s">
         <v>92</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -2988,14 +3164,19 @@
       <c r="E26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="78" t="s">
+      <c r="F26" s="150"/>
+      <c r="G26" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="17">
+      <c r="B27" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="25" t="s">
         <v>94</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -3004,12 +3185,19 @@
       <c r="E27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="78"/>
-      <c r="C28" s="28" t="s">
+      <c r="F27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="17">
+      <c r="B28" s="68"/>
+      <c r="C28" s="25" t="s">
         <v>95</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -3018,12 +3206,19 @@
       <c r="E28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="79"/>
-      <c r="C29" s="28" t="s">
+      <c r="F28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="17">
+      <c r="B29" s="69"/>
+      <c r="C29" s="25" t="s">
         <v>96</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -3032,14 +3227,21 @@
       <c r="E29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="78" t="s">
+      <c r="F29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="17">
+      <c r="B30" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="25" t="s">
         <v>98</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -3048,24 +3250,34 @@
       <c r="E30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="78"/>
-      <c r="C31" s="28" t="s">
+      <c r="F30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="H30" s="67"/>
+    </row>
+    <row r="31" spans="2:8" ht="17">
+      <c r="B31" s="68"/>
+      <c r="C31" s="25" t="s">
         <v>99</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="78"/>
-      <c r="C32" s="28" t="s">
+      <c r="F31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="H31" s="67"/>
+    </row>
+    <row r="32" spans="2:8" ht="17">
+      <c r="B32" s="68"/>
+      <c r="C32" s="25" t="s">
         <v>100</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -3074,12 +3286,15 @@
       <c r="E32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="79"/>
-      <c r="C33" s="28" t="s">
+      <c r="F32" s="150"/>
+      <c r="G32" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="H32" s="67"/>
+    </row>
+    <row r="33" spans="2:8" ht="17">
+      <c r="B33" s="69"/>
+      <c r="C33" s="25" t="s">
         <v>101</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -3088,14 +3303,17 @@
       <c r="E33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="40" t="s">
+      <c r="F33" s="150"/>
+      <c r="G33" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="H33" s="67"/>
+    </row>
+    <row r="34" spans="2:8" ht="17">
+      <c r="B34" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="25" t="s">
         <v>103</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -3104,14 +3322,21 @@
       <c r="E34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="76" t="s">
+      <c r="F34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="17">
+      <c r="B35" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="25" t="s">
         <v>105</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -3123,11 +3348,16 @@
       <c r="F35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G35" s="28"/>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="76"/>
-      <c r="C36" s="28" t="s">
+      <c r="G35" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="17">
+      <c r="B36" s="70"/>
+      <c r="C36" s="25" t="s">
         <v>106</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -3139,11 +3369,16 @@
       <c r="F36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G36" s="28"/>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="76"/>
-      <c r="C37" s="28" t="s">
+      <c r="G36" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="17">
+      <c r="B37" s="70"/>
+      <c r="C37" s="25" t="s">
         <v>107</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -3155,13 +3390,18 @@
       <c r="F37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G37" s="28"/>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="77" t="s">
+      <c r="G37" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="17">
+      <c r="B38" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="25" t="s">
         <v>109</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -3173,11 +3413,16 @@
       <c r="F38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G38" s="28"/>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="79"/>
-      <c r="C39" s="28" t="s">
+      <c r="G38" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" s="67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="17">
+      <c r="B39" s="69"/>
+      <c r="C39" s="25" t="s">
         <v>110</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -3189,13 +3434,18 @@
       <c r="F39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G39" s="28"/>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" s="80" t="s">
+      <c r="G39" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" s="67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="17">
+      <c r="B40" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="25" t="s">
         <v>121</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -3204,12 +3454,19 @@
       <c r="E40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="80"/>
-      <c r="C41" s="28" t="s">
+      <c r="F40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40" s="67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="17">
+      <c r="B41" s="72"/>
+      <c r="C41" s="25" t="s">
         <v>122</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -3218,32 +3475,40 @@
       <c r="E41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-    </row>
-    <row r="42" spans="2:7" ht="30">
-      <c r="B42" s="67" t="s">
+      <c r="F41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41" s="67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="30">
+      <c r="B42" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="68" t="s">
+      <c r="C42" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="G42" s="69"/>
+      <c r="D42" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="H42" s="66" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
+  <mergeCells count="16">
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="B10:B16"/>
@@ -3254,6 +3519,11 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3262,38 +3532,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7561663B-E144-AC49-97DA-5BD8F73237F4}">
-  <dimension ref="B2:I9"/>
+  <dimension ref="B2:I10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="33.453125" customWidth="1"/>
-    <col min="3" max="3" width="30.453125" customWidth="1"/>
+    <col min="2" max="2" width="33.5" customWidth="1"/>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.36328125" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="31.95" customHeight="1">
-      <c r="C2" s="11"/>
-      <c r="D2" s="83" t="s">
+    <row r="2" spans="2:9" ht="32" customHeight="1">
+      <c r="C2" s="10"/>
+      <c r="D2" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="85" t="s">
+      <c r="E2" s="81"/>
+      <c r="F2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="86"/>
-      <c r="H2" s="81" t="s">
+      <c r="G2" s="83"/>
+      <c r="H2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="82"/>
+      <c r="I2" s="79"/>
     </row>
     <row r="3" spans="2:9">
       <c r="D3" s="2" t="s">
@@ -3316,131 +3586,162 @@
       </c>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="153" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="151" t="s">
         <v>205</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6">
+      <c r="D4" s="152"/>
+      <c r="E4" s="152">
         <v>101800</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6">
+      <c r="F4" s="152"/>
+      <c r="G4" s="152">
         <v>268000</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="H4" s="152">
+        <v>0</v>
+      </c>
+      <c r="I4" s="152">
+        <v>250000</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="88"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="154"/>
+      <c r="C5" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6">
+        <v>20000</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="155"/>
+      <c r="C6" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="13" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8">
+        <f>G4*0.12</f>
+        <v>32160</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <f>I4*0.15</f>
+        <v>37500</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="156" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D7" s="9">
         <v>15000</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E7" s="9">
         <v>15000</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F7" s="9">
         <v>17500</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G7" s="9">
         <v>17500</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="12" t="s">
+      <c r="H7" s="6">
+        <v>14980</v>
+      </c>
+      <c r="I7" s="6">
+        <v>14980</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="17">
+      <c r="B8" s="157" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D8" s="8">
         <v>41800</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8">
         <v>198000</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="C8" s="5" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8">
+        <v>80000</v>
+      </c>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="C9" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D8" s="10">
-        <f>D7+D6+D4</f>
+      <c r="D9" s="9">
+        <f>D8+D7+D4</f>
         <v>56800</v>
       </c>
-      <c r="E8" s="10">
-        <f t="shared" ref="E8:I8" si="0">E7+E6+E4</f>
+      <c r="E9" s="9">
+        <f t="shared" ref="E9:I9" si="0">E8+E7+E4</f>
         <v>116800</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F9" s="9">
         <f t="shared" si="0"/>
         <v>215500</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>285500</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H9" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="10">
+        <v>94980</v>
+      </c>
+      <c r="I9" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="C9" s="7" t="s">
+        <v>264980</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="C10" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="D9" s="8">
-        <f>D5+D6</f>
+      <c r="D10" s="8">
+        <f>D6+D7</f>
         <v>15000</v>
       </c>
-      <c r="E9" s="8">
-        <f t="shared" ref="E9:I9" si="1">E5+E6</f>
+      <c r="E10" s="8">
+        <f t="shared" ref="E10:I10" si="1">E6+E7</f>
         <v>15000</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F10" s="8">
         <f t="shared" si="1"/>
         <v>17500</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G10" s="8">
         <f t="shared" si="1"/>
-        <v>17500</v>
-      </c>
-      <c r="H9" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>49660</v>
+      </c>
+      <c r="H10" s="8">
+        <v>14980</v>
+      </c>
+      <c r="I10" s="6">
+        <f>I7+I6</f>
+        <v>52480</v>
       </c>
     </row>
   </sheetData>
@@ -3448,7 +3749,7 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B4:B6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3464,306 +3765,306 @@
       <selection activeCell="A21" sqref="A21:H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="28.6328125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="51.6328125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="34.453125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" style="14" customWidth="1"/>
-    <col min="6" max="16384" width="8.81640625" style="14"/>
+    <col min="1" max="1" width="8.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="51.6640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="34.5" style="11" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.8" customHeight="1">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:5" ht="31.75" customHeight="1">
+      <c r="A1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-    </row>
-    <row r="2" spans="1:5" ht="58.8" customHeight="1">
-      <c r="A2" s="93" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+    </row>
+    <row r="2" spans="1:5" ht="58.75" customHeight="1">
+      <c r="A2" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="93"/>
-    </row>
-    <row r="3" spans="1:5" ht="58.8" customHeight="1">
-      <c r="A3" s="94" t="s">
+      <c r="D2" s="88"/>
+    </row>
+    <row r="3" spans="1:5" ht="58.75" customHeight="1">
+      <c r="A3" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94" t="s">
+      <c r="B3" s="89"/>
+      <c r="C3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="94"/>
+      <c r="D3" s="89"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:5" ht="25.05" customHeight="1">
-      <c r="A5" s="16" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" ht="25" customHeight="1">
+      <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="25.05" customHeight="1">
-      <c r="A6" s="17">
+    <row r="6" spans="1:5" ht="25" customHeight="1">
+      <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="15">
         <v>268000</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="42" customHeight="1">
-      <c r="A7" s="17">
+      <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="25.05" customHeight="1">
-      <c r="A8" s="95">
+    <row r="8" spans="1:5" ht="25" customHeight="1">
+      <c r="A8" s="90">
         <v>3</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="18">
         <v>20000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="25.05" customHeight="1">
-      <c r="A9" s="96"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="22" t="s">
+    <row r="9" spans="1:5" ht="25" customHeight="1">
+      <c r="A9" s="91"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="24" customFormat="1" ht="25.05" customHeight="1">
-      <c r="A10" s="96"/>
-      <c r="B10" s="96"/>
-      <c r="C10" s="22" t="s">
+    <row r="10" spans="1:5" s="21" customFormat="1" ht="25" customHeight="1">
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="23"/>
-    </row>
-    <row r="11" spans="1:5" ht="25.05" customHeight="1">
-      <c r="A11" s="96"/>
-      <c r="B11" s="96"/>
-      <c r="C11" s="22" t="s">
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="1:5" ht="25" customHeight="1">
+      <c r="A11" s="91"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="78" customHeight="1">
-      <c r="A12" s="25">
+      <c r="A12" s="22">
         <v>3</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="25.05" customHeight="1">
-      <c r="A13" s="89" t="s">
+    <row r="13" spans="1:5" ht="25" customHeight="1">
+      <c r="A13" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-    </row>
-    <row r="14" spans="1:5" ht="25.05" customHeight="1">
-      <c r="A14" s="29" t="s">
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+    </row>
+    <row r="14" spans="1:5" ht="25" customHeight="1">
+      <c r="A14" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="31.2" customHeight="1">
-      <c r="A15" s="31">
+    <row r="15" spans="1:5" ht="31.25" customHeight="1">
+      <c r="A15" s="28">
         <v>1</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="25.05" customHeight="1">
-      <c r="A16" s="31">
+    <row r="16" spans="1:5" ht="25" customHeight="1">
+      <c r="A16" s="28">
         <v>2</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="25.05" customHeight="1">
-      <c r="A17" s="31">
+    <row r="17" spans="1:4" ht="25" customHeight="1">
+      <c r="A17" s="28">
         <v>3</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="25.05" customHeight="1">
-      <c r="A18" s="31">
+    <row r="18" spans="1:4" ht="25" customHeight="1">
+      <c r="A18" s="28">
         <v>4</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="25.05" customHeight="1">
-      <c r="A19" s="31">
+    <row r="19" spans="1:4" ht="25" customHeight="1">
+      <c r="A19" s="28">
         <v>5</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="25.05" customHeight="1">
-      <c r="A20" s="31">
+    <row r="20" spans="1:4" ht="25" customHeight="1">
+      <c r="A20" s="28">
         <v>6</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="25.05" customHeight="1">
-      <c r="A21" s="31">
+    <row r="21" spans="1:4" ht="25" customHeight="1">
+      <c r="A21" s="28">
         <v>7</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="25.05" customHeight="1">
-      <c r="A22" s="31">
+    <row r="22" spans="1:4" ht="25" customHeight="1">
+      <c r="A22" s="28">
         <v>8</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="25.05" customHeight="1">
-      <c r="A23" s="31">
+    <row r="23" spans="1:4" ht="25" customHeight="1">
+      <c r="A23" s="28">
         <v>9</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="28" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="36" customHeight="1">
-      <c r="A24" s="33"/>
-      <c r="B24" s="90" t="s">
+      <c r="A24" s="30"/>
+      <c r="B24" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="90"/>
-      <c r="D24" s="91"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="86"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -3793,725 +4094,735 @@
       <selection activeCell="A21" sqref="A21:H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="24.1796875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="25.81640625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="39.36328125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" style="14" customWidth="1"/>
-    <col min="6" max="16384" width="8.81640625" style="14"/>
+    <col min="1" max="1" width="8.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.6">
-      <c r="A1" s="102" t="s">
+    <row r="1" spans="1:4" ht="26">
+      <c r="A1" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-    </row>
-    <row r="2" spans="1:4" ht="31.05" customHeight="1">
-      <c r="A2" s="103" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+    </row>
+    <row r="2" spans="1:4" ht="31" customHeight="1">
+      <c r="A2" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="34"/>
-    </row>
-    <row r="3" spans="1:4" ht="49.95" customHeight="1">
-      <c r="A3" s="104" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="31"/>
+    </row>
+    <row r="3" spans="1:4" ht="50" customHeight="1">
+      <c r="A3" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="35"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="105"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="36" t="s">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="32"/>
+    </row>
+    <row r="4" spans="1:4" ht="17">
+      <c r="A4" s="95"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+    </row>
+    <row r="5" spans="1:4" ht="17">
+      <c r="A5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="36"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="108" t="s">
+      <c r="C5" s="97"/>
+      <c r="D5" s="33"/>
+    </row>
+    <row r="6" spans="1:4" ht="17">
+      <c r="A6" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="28" t="s">
+      <c r="B6" s="99"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="55.05" customHeight="1">
-      <c r="A7" s="37">
+    <row r="7" spans="1:4" ht="55" customHeight="1">
+      <c r="A7" s="34">
         <v>1</v>
       </c>
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="34" t="s">
+      <c r="C7" s="101"/>
+      <c r="D7" s="31" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1">
-      <c r="A8" s="37">
+      <c r="A8" s="34">
         <v>2</v>
       </c>
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="38">
+      <c r="C8" s="101"/>
+      <c r="D8" s="35">
         <v>198000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="45">
-      <c r="A9" s="25">
+    <row r="9" spans="1:4" ht="51">
+      <c r="A9" s="22">
         <v>3</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="35" t="s">
+      <c r="C9" s="102"/>
+      <c r="D9" s="32" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20.399999999999999">
-      <c r="A10" s="101" t="s">
+    <row r="10" spans="1:4" ht="21">
+      <c r="A10" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="39" t="s">
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+    </row>
+    <row r="11" spans="1:4" ht="17">
+      <c r="A11" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="36" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="28">
+    <row r="12" spans="1:4" ht="17">
+      <c r="A12" s="25">
         <v>1</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="28">
+    <row r="13" spans="1:4" ht="17">
+      <c r="A13" s="25">
         <v>2</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="28" t="s">
+      <c r="B13" s="70"/>
+      <c r="C13" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="28">
+    <row r="14" spans="1:4" ht="17">
+      <c r="A14" s="25">
         <v>3</v>
       </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="28" t="s">
+      <c r="B14" s="70"/>
+      <c r="C14" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="28">
+    <row r="15" spans="1:4" ht="17">
+      <c r="A15" s="25">
         <v>4</v>
       </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="28" t="s">
+      <c r="B15" s="70"/>
+      <c r="C15" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="28">
+    <row r="16" spans="1:4" ht="17">
+      <c r="A16" s="25">
         <v>5</v>
       </c>
-      <c r="B16" s="76"/>
-      <c r="C16" s="28" t="s">
+      <c r="B16" s="70"/>
+      <c r="C16" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="28">
+    <row r="17" spans="1:4" ht="17">
+      <c r="A17" s="25">
         <v>6</v>
       </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="28" t="s">
+      <c r="B17" s="70"/>
+      <c r="C17" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="28">
+    <row r="18" spans="1:4" ht="17">
+      <c r="A18" s="25">
         <v>7</v>
       </c>
-      <c r="B18" s="77" t="s">
+      <c r="B18" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="28">
+    <row r="19" spans="1:4" ht="17">
+      <c r="A19" s="25">
         <v>8</v>
       </c>
-      <c r="B19" s="78"/>
-      <c r="C19" s="28" t="s">
+      <c r="B19" s="68"/>
+      <c r="C19" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="28">
+    <row r="20" spans="1:4" ht="17">
+      <c r="A20" s="25">
         <v>9</v>
       </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="28" t="s">
+      <c r="B20" s="68"/>
+      <c r="C20" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="28">
+    <row r="21" spans="1:4" ht="17">
+      <c r="A21" s="25">
         <v>10</v>
       </c>
-      <c r="B21" s="78"/>
-      <c r="C21" s="28" t="s">
+      <c r="B21" s="68"/>
+      <c r="C21" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="28">
+    <row r="22" spans="1:4" ht="17">
+      <c r="A22" s="25">
         <v>11</v>
       </c>
-      <c r="B22" s="78"/>
-      <c r="C22" s="28" t="s">
+      <c r="B22" s="68"/>
+      <c r="C22" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="28">
+    <row r="23" spans="1:4" ht="17">
+      <c r="A23" s="25">
         <v>12</v>
       </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="28" t="s">
+      <c r="B23" s="68"/>
+      <c r="C23" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="28">
+    <row r="24" spans="1:4" ht="17">
+      <c r="A24" s="25">
         <v>13</v>
       </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="28" t="s">
+      <c r="B24" s="68"/>
+      <c r="C24" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="28">
+    <row r="25" spans="1:4" ht="17">
+      <c r="A25" s="25">
         <v>14</v>
       </c>
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="28">
+    <row r="26" spans="1:4" ht="17">
+      <c r="A26" s="25">
         <v>15</v>
       </c>
-      <c r="B26" s="76"/>
-      <c r="C26" s="28" t="s">
+      <c r="B26" s="70"/>
+      <c r="C26" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="28">
+    <row r="27" spans="1:4" ht="17">
+      <c r="A27" s="25">
         <v>16</v>
       </c>
-      <c r="B27" s="76"/>
-      <c r="C27" s="28" t="s">
+      <c r="B27" s="70"/>
+      <c r="C27" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="28">
+    <row r="28" spans="1:4" ht="17">
+      <c r="A28" s="25">
         <v>17</v>
       </c>
-      <c r="B28" s="76"/>
-      <c r="C28" s="28" t="s">
+      <c r="B28" s="70"/>
+      <c r="C28" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="28">
+    <row r="29" spans="1:4" ht="17">
+      <c r="A29" s="25">
         <v>18</v>
       </c>
-      <c r="B29" s="76" t="s">
+      <c r="B29" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="28">
+    <row r="30" spans="1:4" ht="17">
+      <c r="A30" s="25">
         <v>19</v>
       </c>
-      <c r="B30" s="76"/>
-      <c r="C30" s="28" t="s">
+      <c r="B30" s="70"/>
+      <c r="C30" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="28">
+    <row r="31" spans="1:4" ht="17">
+      <c r="A31" s="25">
         <v>20</v>
       </c>
-      <c r="B31" s="76"/>
-      <c r="C31" s="28" t="s">
+      <c r="B31" s="70"/>
+      <c r="C31" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="28">
+    <row r="32" spans="1:4" ht="17">
+      <c r="A32" s="25">
         <v>21</v>
       </c>
-      <c r="B32" s="76"/>
-      <c r="C32" s="28" t="s">
+      <c r="B32" s="70"/>
+      <c r="C32" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="28">
+    <row r="33" spans="1:4" ht="17">
+      <c r="A33" s="25">
         <v>22</v>
       </c>
-      <c r="B33" s="76"/>
-      <c r="C33" s="28" t="s">
+      <c r="B33" s="70"/>
+      <c r="C33" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="28" t="s">
+      <c r="D33" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="28">
+    <row r="34" spans="1:4" ht="17">
+      <c r="A34" s="25">
         <v>23</v>
       </c>
-      <c r="B34" s="76"/>
-      <c r="C34" s="28" t="s">
+      <c r="B34" s="70"/>
+      <c r="C34" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="28">
+    <row r="35" spans="1:4" ht="17">
+      <c r="A35" s="25">
         <v>24</v>
       </c>
-      <c r="B35" s="78" t="s">
+      <c r="B35" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="D35" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="28">
+    <row r="36" spans="1:4" ht="17">
+      <c r="A36" s="25">
         <v>25</v>
       </c>
-      <c r="B36" s="78"/>
-      <c r="C36" s="28" t="s">
+      <c r="B36" s="68"/>
+      <c r="C36" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="28" t="s">
+      <c r="D36" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="28">
+    <row r="37" spans="1:4" ht="17">
+      <c r="A37" s="25">
         <v>26</v>
       </c>
-      <c r="B37" s="79"/>
-      <c r="C37" s="28" t="s">
+      <c r="B37" s="69"/>
+      <c r="C37" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="D37" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="28">
+    <row r="38" spans="1:4" ht="17">
+      <c r="A38" s="25">
         <v>27</v>
       </c>
-      <c r="B38" s="78" t="s">
+      <c r="B38" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="28">
+    <row r="39" spans="1:4" ht="17">
+      <c r="A39" s="25">
         <v>28</v>
       </c>
-      <c r="B39" s="78"/>
-      <c r="C39" s="28" t="s">
+      <c r="B39" s="68"/>
+      <c r="C39" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="28" t="s">
+      <c r="D39" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="28">
+    <row r="40" spans="1:4" ht="17">
+      <c r="A40" s="25">
         <v>29</v>
       </c>
-      <c r="B40" s="78"/>
-      <c r="C40" s="28" t="s">
+      <c r="B40" s="68"/>
+      <c r="C40" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="D40" s="28" t="s">
+      <c r="D40" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="28">
+    <row r="41" spans="1:4" ht="17">
+      <c r="A41" s="25">
         <v>30</v>
       </c>
-      <c r="B41" s="79"/>
-      <c r="C41" s="28" t="s">
+      <c r="B41" s="69"/>
+      <c r="C41" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="28">
+    <row r="42" spans="1:4" ht="17">
+      <c r="A42" s="25">
         <v>31</v>
       </c>
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="D42" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="28">
+    <row r="43" spans="1:4" ht="17">
+      <c r="A43" s="25">
         <v>32</v>
       </c>
-      <c r="B43" s="76" t="s">
+      <c r="B43" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="D43" s="28" t="s">
+      <c r="D43" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="28">
+    <row r="44" spans="1:4" ht="17">
+      <c r="A44" s="25">
         <v>33</v>
       </c>
-      <c r="B44" s="76"/>
-      <c r="C44" s="28" t="s">
+      <c r="B44" s="70"/>
+      <c r="C44" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="D44" s="28" t="s">
+      <c r="D44" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="28">
+    <row r="45" spans="1:4" ht="17">
+      <c r="A45" s="25">
         <v>34</v>
       </c>
-      <c r="B45" s="76"/>
-      <c r="C45" s="28" t="s">
+      <c r="B45" s="70"/>
+      <c r="C45" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="28">
+    <row r="46" spans="1:4" ht="17">
+      <c r="A46" s="25">
         <v>35</v>
       </c>
-      <c r="B46" s="77" t="s">
+      <c r="B46" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="28">
+    <row r="47" spans="1:4" ht="17">
+      <c r="A47" s="25">
         <v>36</v>
       </c>
-      <c r="B47" s="79"/>
-      <c r="C47" s="28" t="s">
+      <c r="B47" s="69"/>
+      <c r="C47" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="D47" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="30">
-      <c r="A48" s="28">
+    <row r="48" spans="1:4" ht="34">
+      <c r="A48" s="25">
         <v>37</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D48" s="28" t="s">
+      <c r="D48" s="25" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="28">
+    <row r="49" spans="1:4" ht="17">
+      <c r="A49" s="25">
         <v>38</v>
       </c>
-      <c r="B49" s="80" t="s">
+      <c r="B49" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="D49" s="28" t="s">
+      <c r="D49" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="28">
+    <row r="50" spans="1:4" ht="17">
+      <c r="A50" s="25">
         <v>39</v>
       </c>
-      <c r="B50" s="80"/>
-      <c r="C50" s="28" t="s">
+      <c r="B50" s="72"/>
+      <c r="C50" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="D50" s="28" t="s">
+      <c r="D50" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="28">
+    <row r="51" spans="1:4" ht="17">
+      <c r="A51" s="25">
         <v>40</v>
       </c>
-      <c r="B51" s="80"/>
-      <c r="C51" s="28" t="s">
+      <c r="B51" s="72"/>
+      <c r="C51" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="D51" s="28" t="s">
+      <c r="D51" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="28">
+    <row r="52" spans="1:4" ht="17">
+      <c r="A52" s="25">
         <v>41</v>
       </c>
-      <c r="B52" s="80"/>
-      <c r="C52" s="28" t="s">
+      <c r="B52" s="72"/>
+      <c r="C52" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="D52" s="28" t="s">
+      <c r="D52" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="28">
+    <row r="53" spans="1:4" ht="17">
+      <c r="A53" s="25">
         <v>42</v>
       </c>
-      <c r="B53" s="80"/>
-      <c r="C53" s="28" t="s">
+      <c r="B53" s="72"/>
+      <c r="C53" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="28">
+    <row r="54" spans="1:4" ht="17">
+      <c r="A54" s="25">
         <v>43</v>
       </c>
-      <c r="B54" s="80" t="s">
+      <c r="B54" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="28" t="s">
+      <c r="C54" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="D54" s="28" t="s">
+      <c r="D54" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="28">
+    <row r="55" spans="1:4" ht="17">
+      <c r="A55" s="25">
         <v>44</v>
       </c>
-      <c r="B55" s="80"/>
-      <c r="C55" s="28" t="s">
+      <c r="B55" s="72"/>
+      <c r="C55" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="D55" s="28" t="s">
+      <c r="D55" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="28">
+    <row r="56" spans="1:4" ht="34">
+      <c r="A56" s="25">
         <v>45</v>
       </c>
-      <c r="B56" s="76" t="s">
+      <c r="B56" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C56" s="28" t="s">
+      <c r="C56" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="D56" s="28" t="s">
+      <c r="D56" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="28">
+    <row r="57" spans="1:4" ht="17">
+      <c r="A57" s="25">
         <v>46</v>
       </c>
-      <c r="B57" s="76"/>
-      <c r="C57" s="28" t="s">
+      <c r="B57" s="70"/>
+      <c r="C57" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="D57" s="28" t="s">
+      <c r="D57" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="28">
+    <row r="58" spans="1:4" ht="17">
+      <c r="A58" s="25">
         <v>47</v>
       </c>
-      <c r="B58" s="76"/>
-      <c r="C58" s="28" t="s">
+      <c r="B58" s="70"/>
+      <c r="C58" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="D58" s="28" t="s">
+      <c r="D58" s="25" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="41"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="97" t="s">
+      <c r="A59" s="38"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="D59" s="98"/>
+      <c r="D59" s="100"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <mergeCells count="22">
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B46:B47"/>
     <mergeCell ref="B18:B24"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
@@ -4524,16 +4835,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="B12:B17"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B46:B47"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4553,601 +4854,622 @@
       <selection activeCell="A21" sqref="A21:H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="41.1796875" style="44" customWidth="1"/>
-    <col min="2" max="2" width="1.81640625" style="44" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" style="44" customWidth="1"/>
-    <col min="4" max="4" width="9.36328125" style="44" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" style="44" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="44" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="44" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" style="66" customWidth="1"/>
-    <col min="9" max="16384" width="8.81640625" style="44"/>
+    <col min="1" max="1" width="41.1640625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="1.83203125" style="41" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="41" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="41" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="41" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="41" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" style="63" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.95" customHeight="1">
-      <c r="A1" s="144" t="s">
+    <row r="1" spans="1:9" ht="23" customHeight="1">
+      <c r="A1" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="43"/>
-    </row>
-    <row r="2" spans="1:9" ht="37.950000000000003" customHeight="1">
-      <c r="A2" s="147"/>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="43"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.95" customHeight="1">
-      <c r="A3" s="150" t="s">
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="40"/>
+    </row>
+    <row r="2" spans="1:9" ht="38" customHeight="1">
+      <c r="A2" s="109"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="40"/>
+    </row>
+    <row r="3" spans="1:9" ht="17" customHeight="1">
+      <c r="A3" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="118"/>
-    </row>
-    <row r="4" spans="1:9" ht="16.95" customHeight="1">
-      <c r="A4" s="45" t="s">
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="114"/>
+    </row>
+    <row r="4" spans="1:9" ht="17" customHeight="1">
+      <c r="A4" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="104" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="140"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.95" customHeight="1">
-      <c r="A5" s="45" t="s">
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="105"/>
+    </row>
+    <row r="5" spans="1:9" ht="17" customHeight="1">
+      <c r="A5" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="151">
+      <c r="B5" s="115">
         <v>9.1330106311313101E+17</v>
       </c>
-      <c r="C5" s="151"/>
-      <c r="D5" s="151"/>
-      <c r="E5" s="151"/>
-      <c r="F5" s="151"/>
-      <c r="G5" s="151"/>
-      <c r="H5" s="152"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.95" customHeight="1">
-      <c r="A6" s="45" t="s">
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="116"/>
+    </row>
+    <row r="6" spans="1:9" ht="17" customHeight="1">
+      <c r="A6" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="139" t="s">
+      <c r="B6" s="104" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="140"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.95" customHeight="1">
-      <c r="A7" s="45" t="s">
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="105"/>
+    </row>
+    <row r="7" spans="1:9" ht="17" customHeight="1">
+      <c r="A7" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="139" t="s">
+      <c r="B7" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="140"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.95" customHeight="1">
-      <c r="A8" s="45" t="s">
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="105"/>
+    </row>
+    <row r="8" spans="1:9" ht="17" customHeight="1">
+      <c r="A8" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="104" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="140"/>
-    </row>
-    <row r="9" spans="1:9" s="47" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A9" s="46" t="s">
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="105"/>
+    </row>
+    <row r="9" spans="1:9" s="44" customFormat="1" ht="17" customHeight="1">
+      <c r="A9" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="139"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="140"/>
-    </row>
-    <row r="10" spans="1:9" s="47" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A10" s="46" t="s">
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="105"/>
+    </row>
+    <row r="10" spans="1:9" s="44" customFormat="1" ht="17" customHeight="1">
+      <c r="A10" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="139">
+      <c r="B10" s="104">
         <v>13651666506</v>
       </c>
-      <c r="C10" s="139"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="140"/>
-    </row>
-    <row r="11" spans="1:9" s="47" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A11" s="46" t="s">
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="105"/>
+    </row>
+    <row r="11" spans="1:9" s="44" customFormat="1" ht="17" customHeight="1">
+      <c r="A11" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="120" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="141"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="142"/>
-    </row>
-    <row r="12" spans="1:9" s="47" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A12" s="45" t="s">
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="122"/>
+    </row>
+    <row r="12" spans="1:9" s="44" customFormat="1" ht="17" customHeight="1">
+      <c r="A12" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="139" t="s">
+      <c r="B12" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="140"/>
-    </row>
-    <row r="13" spans="1:9" s="47" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A13" s="45" t="s">
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="105"/>
+    </row>
+    <row r="13" spans="1:9" s="44" customFormat="1" ht="17" customHeight="1">
+      <c r="A13" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="B13" s="143">
+      <c r="B13" s="123">
         <v>44712</v>
       </c>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="140"/>
-    </row>
-    <row r="14" spans="1:9" s="47" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A14" s="130" t="s">
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="105"/>
+    </row>
+    <row r="14" spans="1:9" s="44" customFormat="1" ht="17" customHeight="1">
+      <c r="A14" s="124" t="s">
         <v>145</v>
       </c>
-      <c r="B14" s="131"/>
-      <c r="C14" s="48" t="s">
+      <c r="B14" s="125"/>
+      <c r="C14" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="H14" s="49" t="s">
+      <c r="H14" s="46" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="47" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A15" s="132" t="s">
+    <row r="15" spans="1:9" s="44" customFormat="1" ht="17" customHeight="1">
+      <c r="A15" s="126" t="s">
         <v>152</v>
       </c>
-      <c r="B15" s="133"/>
-      <c r="C15" s="50" t="s">
+      <c r="B15" s="127"/>
+      <c r="C15" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="D15" s="51">
+      <c r="D15" s="48">
         <v>12</v>
       </c>
-      <c r="E15" s="50">
+      <c r="E15" s="47">
         <v>125000</v>
       </c>
-      <c r="F15" s="50">
+      <c r="F15" s="47">
         <v>41800</v>
       </c>
-      <c r="G15" s="52">
+      <c r="G15" s="49">
         <v>1</v>
       </c>
-      <c r="H15" s="53">
+      <c r="H15" s="50">
         <v>41800</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="47" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A16" s="132" t="s">
+    <row r="16" spans="1:9" s="44" customFormat="1" ht="17" customHeight="1">
+      <c r="A16" s="126" t="s">
         <v>154</v>
       </c>
-      <c r="B16" s="133"/>
-      <c r="C16" s="50" t="s">
+      <c r="B16" s="127"/>
+      <c r="C16" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="D16" s="51">
+      <c r="D16" s="48">
         <v>12</v>
       </c>
-      <c r="E16" s="50">
+      <c r="E16" s="47">
         <v>9</v>
       </c>
-      <c r="F16" s="50">
+      <c r="F16" s="47">
         <v>3</v>
       </c>
-      <c r="G16" s="54">
+      <c r="G16" s="51">
         <v>5000</v>
       </c>
-      <c r="H16" s="55">
+      <c r="H16" s="52">
         <v>15000</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="59" customFormat="1" ht="15">
-      <c r="A17" s="56" t="s">
+    <row r="17" spans="1:8" s="56" customFormat="1" ht="16">
+      <c r="A17" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="134" t="s">
+      <c r="B17" s="54"/>
+      <c r="C17" s="117" t="s">
         <v>156</v>
       </c>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="58">
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="55">
         <f>H15+H16</f>
         <v>56800</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="47" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A18" s="137" t="s">
+    <row r="18" spans="1:8" s="44" customFormat="1" ht="17" customHeight="1">
+      <c r="A18" s="128" t="s">
         <v>157</v>
       </c>
-      <c r="B18" s="138"/>
-      <c r="C18" s="60" t="s">
+      <c r="B18" s="129"/>
+      <c r="C18" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="D18" s="60" t="s">
+      <c r="D18" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="E18" s="60">
+      <c r="E18" s="57">
         <v>100000</v>
       </c>
-      <c r="F18" s="60">
+      <c r="F18" s="57">
         <v>60000</v>
       </c>
-      <c r="G18" s="61">
+      <c r="G18" s="58">
         <v>1</v>
       </c>
-      <c r="H18" s="62">
+      <c r="H18" s="59">
         <v>60000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="59" customFormat="1" ht="15">
-      <c r="A19" s="56" t="s">
+    <row r="19" spans="1:8" s="56" customFormat="1" ht="16">
+      <c r="A19" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="134" t="s">
+      <c r="B19" s="54"/>
+      <c r="C19" s="117" t="s">
         <v>161</v>
       </c>
-      <c r="D19" s="135"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="58">
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="55">
         <f>H17+H18</f>
         <v>116800</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="47" customFormat="1">
-      <c r="A20" s="123" t="s">
+    <row r="20" spans="1:8" s="44" customFormat="1" ht="16">
+      <c r="A20" s="130" t="s">
         <v>162</v>
       </c>
-      <c r="B20" s="124"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="118"/>
-    </row>
-    <row r="21" spans="1:8" s="47" customFormat="1" ht="37.950000000000003" customHeight="1">
-      <c r="A21" s="125" t="s">
+      <c r="B20" s="131"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="114"/>
+    </row>
+    <row r="21" spans="1:8" s="44" customFormat="1" ht="38" customHeight="1">
+      <c r="A21" s="132" t="s">
         <v>181</v>
       </c>
-      <c r="B21" s="126"/>
-      <c r="C21" s="127" t="s">
+      <c r="B21" s="133"/>
+      <c r="C21" s="136" t="s">
         <v>182</v>
       </c>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="129"/>
-    </row>
-    <row r="22" spans="1:8" s="47" customFormat="1" ht="15">
-      <c r="A22" s="119"/>
-      <c r="B22" s="115"/>
-      <c r="C22" s="116" t="s">
+      <c r="D21" s="137"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="138"/>
+    </row>
+    <row r="22" spans="1:8" s="44" customFormat="1" ht="16">
+      <c r="A22" s="134"/>
+      <c r="B22" s="135"/>
+      <c r="C22" s="120" t="s">
         <v>183</v>
       </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="118"/>
-    </row>
-    <row r="23" spans="1:8" s="47" customFormat="1" ht="15">
-      <c r="A23" s="119"/>
-      <c r="B23" s="115"/>
-      <c r="C23" s="116" t="s">
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="114"/>
+    </row>
+    <row r="23" spans="1:8" s="44" customFormat="1" ht="16">
+      <c r="A23" s="134"/>
+      <c r="B23" s="135"/>
+      <c r="C23" s="120" t="s">
         <v>184</v>
       </c>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="118"/>
-    </row>
-    <row r="24" spans="1:8" s="47" customFormat="1" ht="15">
-      <c r="A24" s="119"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="116" t="s">
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="114"/>
+    </row>
+    <row r="24" spans="1:8" s="44" customFormat="1" ht="16">
+      <c r="A24" s="134"/>
+      <c r="B24" s="135"/>
+      <c r="C24" s="120" t="s">
         <v>185</v>
       </c>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="118"/>
-    </row>
-    <row r="25" spans="1:8" s="47" customFormat="1" ht="15">
-      <c r="A25" s="119"/>
-      <c r="B25" s="115"/>
-      <c r="C25" s="116" t="s">
+      <c r="D24" s="113"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="114"/>
+    </row>
+    <row r="25" spans="1:8" s="44" customFormat="1" ht="16">
+      <c r="A25" s="134"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="120" t="s">
         <v>186</v>
       </c>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="118"/>
-    </row>
-    <row r="26" spans="1:8" s="47" customFormat="1" ht="15">
-      <c r="A26" s="119"/>
-      <c r="B26" s="115"/>
-      <c r="C26" s="116" t="s">
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="114"/>
+    </row>
+    <row r="26" spans="1:8" s="44" customFormat="1" ht="16">
+      <c r="A26" s="134"/>
+      <c r="B26" s="135"/>
+      <c r="C26" s="120" t="s">
         <v>187</v>
       </c>
-      <c r="D26" s="117"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="118"/>
-    </row>
-    <row r="27" spans="1:8" s="47" customFormat="1" ht="15">
-      <c r="A27" s="114" t="s">
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="114"/>
+    </row>
+    <row r="27" spans="1:8" s="44" customFormat="1" ht="16">
+      <c r="A27" s="139" t="s">
         <v>188</v>
       </c>
-      <c r="B27" s="115"/>
-      <c r="C27" s="116" t="s">
+      <c r="B27" s="135"/>
+      <c r="C27" s="120" t="s">
         <v>189</v>
       </c>
-      <c r="D27" s="117"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="117"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="118"/>
-    </row>
-    <row r="28" spans="1:8" s="47" customFormat="1" ht="15">
-      <c r="A28" s="119"/>
-      <c r="B28" s="115"/>
-      <c r="C28" s="116" t="s">
+      <c r="D27" s="113"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="114"/>
+    </row>
+    <row r="28" spans="1:8" s="44" customFormat="1" ht="16">
+      <c r="A28" s="134"/>
+      <c r="B28" s="135"/>
+      <c r="C28" s="120" t="s">
         <v>190</v>
       </c>
-      <c r="D28" s="117"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="118"/>
-    </row>
-    <row r="29" spans="1:8" s="47" customFormat="1" ht="15">
-      <c r="A29" s="119"/>
-      <c r="B29" s="115"/>
-      <c r="C29" s="116" t="s">
+      <c r="D28" s="113"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="114"/>
+    </row>
+    <row r="29" spans="1:8" s="44" customFormat="1" ht="16">
+      <c r="A29" s="134"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="120" t="s">
         <v>191</v>
       </c>
-      <c r="D29" s="117"/>
-      <c r="E29" s="117"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="117"/>
-      <c r="H29" s="118"/>
-    </row>
-    <row r="30" spans="1:8" s="47" customFormat="1" ht="15">
-      <c r="A30" s="114" t="s">
+      <c r="D29" s="113"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="114"/>
+    </row>
+    <row r="30" spans="1:8" s="44" customFormat="1" ht="16">
+      <c r="A30" s="139" t="s">
         <v>192</v>
       </c>
-      <c r="B30" s="115"/>
-      <c r="C30" s="116" t="s">
+      <c r="B30" s="135"/>
+      <c r="C30" s="120" t="s">
         <v>163</v>
       </c>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="118"/>
-    </row>
-    <row r="31" spans="1:8" s="47" customFormat="1" ht="15">
-      <c r="A31" s="114"/>
-      <c r="B31" s="115"/>
-      <c r="C31" s="116" t="s">
+      <c r="D30" s="113"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="114"/>
+    </row>
+    <row r="31" spans="1:8" s="44" customFormat="1" ht="16">
+      <c r="A31" s="139"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="120" t="s">
         <v>164</v>
       </c>
-      <c r="D31" s="117"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="118"/>
-    </row>
-    <row r="32" spans="1:8" s="47" customFormat="1" ht="15">
-      <c r="A32" s="119"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="116" t="s">
+      <c r="D31" s="113"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="114"/>
+    </row>
+    <row r="32" spans="1:8" s="44" customFormat="1" ht="16">
+      <c r="A32" s="134"/>
+      <c r="B32" s="135"/>
+      <c r="C32" s="120" t="s">
         <v>165</v>
       </c>
-      <c r="D32" s="117"/>
-      <c r="E32" s="117"/>
-      <c r="F32" s="117"/>
-      <c r="G32" s="117"/>
-      <c r="H32" s="118"/>
-    </row>
-    <row r="33" spans="1:8" s="47" customFormat="1" ht="15">
-      <c r="A33" s="114" t="s">
+      <c r="D32" s="113"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="114"/>
+    </row>
+    <row r="33" spans="1:8" s="44" customFormat="1" ht="16">
+      <c r="A33" s="139" t="s">
         <v>166</v>
       </c>
-      <c r="B33" s="115"/>
-      <c r="C33" s="116" t="s">
+      <c r="B33" s="135"/>
+      <c r="C33" s="120" t="s">
         <v>167</v>
       </c>
-      <c r="D33" s="117"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="118"/>
-    </row>
-    <row r="34" spans="1:8" s="47" customFormat="1" ht="15">
-      <c r="A34" s="114" t="s">
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="114"/>
+    </row>
+    <row r="34" spans="1:8" s="44" customFormat="1" ht="16">
+      <c r="A34" s="139" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="63"/>
-      <c r="C34" s="120" t="s">
+      <c r="B34" s="60"/>
+      <c r="C34" s="145" t="s">
         <v>169</v>
       </c>
-      <c r="D34" s="121"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="121"/>
-      <c r="G34" s="121"/>
-      <c r="H34" s="122"/>
-    </row>
-    <row r="35" spans="1:8" s="47" customFormat="1" ht="15">
-      <c r="A35" s="119"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="120" t="s">
+      <c r="D34" s="146"/>
+      <c r="E34" s="146"/>
+      <c r="F34" s="146"/>
+      <c r="G34" s="146"/>
+      <c r="H34" s="147"/>
+    </row>
+    <row r="35" spans="1:8" s="44" customFormat="1" ht="16">
+      <c r="A35" s="134"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="145" t="s">
         <v>170</v>
       </c>
-      <c r="D35" s="121"/>
-      <c r="E35" s="121"/>
-      <c r="F35" s="121"/>
-      <c r="G35" s="121"/>
-      <c r="H35" s="122"/>
-    </row>
-    <row r="36" spans="1:8" s="47" customFormat="1" ht="15">
-      <c r="A36" s="114" t="s">
+      <c r="D35" s="146"/>
+      <c r="E35" s="146"/>
+      <c r="F35" s="146"/>
+      <c r="G35" s="146"/>
+      <c r="H35" s="147"/>
+    </row>
+    <row r="36" spans="1:8" s="44" customFormat="1" ht="16">
+      <c r="A36" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="B36" s="115"/>
-      <c r="C36" s="116" t="s">
+      <c r="B36" s="135"/>
+      <c r="C36" s="120" t="s">
         <v>176</v>
       </c>
-      <c r="D36" s="117"/>
-      <c r="E36" s="117"/>
-      <c r="F36" s="117"/>
-      <c r="G36" s="117"/>
-      <c r="H36" s="118"/>
-    </row>
-    <row r="37" spans="1:8" s="47" customFormat="1" ht="15">
-      <c r="A37" s="119"/>
-      <c r="B37" s="115"/>
-      <c r="C37" s="116" t="s">
+      <c r="D36" s="113"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="114"/>
+    </row>
+    <row r="37" spans="1:8" s="44" customFormat="1" ht="16">
+      <c r="A37" s="134"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="D37" s="117"/>
-      <c r="E37" s="117"/>
-      <c r="F37" s="117"/>
-      <c r="G37" s="117"/>
-      <c r="H37" s="118"/>
-    </row>
-    <row r="38" spans="1:8" s="47" customFormat="1" ht="15">
-      <c r="A38" s="119"/>
-      <c r="B38" s="115"/>
-      <c r="C38" s="116" t="s">
+      <c r="D37" s="113"/>
+      <c r="E37" s="113"/>
+      <c r="F37" s="113"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="114"/>
+    </row>
+    <row r="38" spans="1:8" s="44" customFormat="1" ht="16">
+      <c r="A38" s="134"/>
+      <c r="B38" s="135"/>
+      <c r="C38" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D38" s="117"/>
-      <c r="E38" s="117"/>
-      <c r="F38" s="117"/>
-      <c r="G38" s="117"/>
-      <c r="H38" s="118"/>
-    </row>
-    <row r="39" spans="1:8" ht="43.05" customHeight="1">
-      <c r="A39" s="45" t="s">
+      <c r="D38" s="113"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="114"/>
+    </row>
+    <row r="39" spans="1:8" ht="43" customHeight="1">
+      <c r="A39" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="64"/>
-      <c r="C39" s="65" t="s">
+      <c r="B39" s="61"/>
+      <c r="C39" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D39" s="109" t="s">
+      <c r="D39" s="140" t="s">
         <v>173</v>
       </c>
-      <c r="E39" s="109"/>
-      <c r="F39" s="109"/>
-      <c r="G39" s="109"/>
-      <c r="H39" s="110"/>
-    </row>
-    <row r="40" spans="1:8" ht="16.2" thickBot="1">
-      <c r="A40" s="111" t="s">
+      <c r="E39" s="140"/>
+      <c r="F39" s="140"/>
+      <c r="G39" s="140"/>
+      <c r="H39" s="141"/>
+    </row>
+    <row r="40" spans="1:8" ht="18" thickBot="1">
+      <c r="A40" s="142" t="s">
         <v>174</v>
       </c>
-      <c r="B40" s="112"/>
-      <c r="C40" s="112"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="112"/>
-      <c r="H40" s="113"/>
+      <c r="B40" s="143"/>
+      <c r="C40" s="143"/>
+      <c r="D40" s="143"/>
+      <c r="E40" s="143"/>
+      <c r="F40" s="143"/>
+      <c r="G40" s="143"/>
+      <c r="H40" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="A36:B38"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="A30:B32"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:B26"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C26:H26"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="B9:H9"/>
@@ -5160,33 +5482,12 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:B26"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="A30:B32"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="A36:B38"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/电签系统评估/供应商分析比较.xlsx
+++ b/电签系统评估/供应商分析比较.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ah0122875\Documents\transfer\电签系统评估\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064071DB-A3E4-4045-A2B6-61B6B8418E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2194064-0F3A-419A-A47D-0C33BD871756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{13850604-592A-394E-9E6D-CEE1130DC802}"/>
   </bookViews>
@@ -625,7 +625,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -680,36 +680,69 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -727,27 +760,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="8" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -758,17 +770,11 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1092,7 +1098,7 @@
   <dimension ref="B2:H42"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
@@ -1105,39 +1111,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="18" customHeight="1">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="34" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="33" customHeight="1">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="2:8" ht="16.95" customHeight="1">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -1160,7 +1166,7 @@
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="20"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
@@ -1181,7 +1187,7 @@
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="20"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
@@ -1202,7 +1208,7 @@
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="20"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="8" t="s">
         <v>57</v>
       </c>
@@ -1221,7 +1227,7 @@
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="20"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
@@ -1242,7 +1248,7 @@
       </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="20"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="8" t="s">
         <v>11</v>
       </c>
@@ -1263,7 +1269,7 @@
       </c>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="30" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -1286,7 +1292,7 @@
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="22"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
@@ -1307,7 +1313,7 @@
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="22"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="8" t="s">
         <v>15</v>
       </c>
@@ -1328,7 +1334,7 @@
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="22"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="8" t="s">
         <v>16</v>
       </c>
@@ -1349,7 +1355,7 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="62.4">
-      <c r="B14" s="22"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="8" t="s">
         <v>17</v>
       </c>
@@ -1370,7 +1376,7 @@
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="22"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="8" t="s">
         <v>18</v>
       </c>
@@ -1391,7 +1397,7 @@
       </c>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="22"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="8" t="s">
         <v>19</v>
       </c>
@@ -1412,7 +1418,7 @@
       </c>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -1435,7 +1441,7 @@
       </c>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="20"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="8" t="s">
         <v>22</v>
       </c>
@@ -1456,7 +1462,7 @@
       </c>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="20"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="8" t="s">
         <v>23</v>
       </c>
@@ -1477,7 +1483,7 @@
       </c>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="20"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="8" t="s">
         <v>24</v>
       </c>
@@ -1498,7 +1504,7 @@
       </c>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="29" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -1521,7 +1527,7 @@
       </c>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="20"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="8" t="s">
         <v>27</v>
       </c>
@@ -1542,7 +1548,7 @@
       </c>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="20"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="8" t="s">
         <v>28</v>
       </c>
@@ -1563,7 +1569,7 @@
       </c>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="20"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="8" t="s">
         <v>29</v>
       </c>
@@ -1584,7 +1590,7 @@
       </c>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="20"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="8" t="s">
         <v>30</v>
       </c>
@@ -1603,7 +1609,7 @@
       <c r="H25" s="13"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="20"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="8" t="s">
         <v>31</v>
       </c>
@@ -1622,7 +1628,7 @@
       </c>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="27" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="8" t="s">
@@ -1645,7 +1651,7 @@
       </c>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="22"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="8" t="s">
         <v>34</v>
       </c>
@@ -1666,7 +1672,7 @@
       </c>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="26"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="8" t="s">
         <v>35</v>
       </c>
@@ -1687,7 +1693,7 @@
       </c>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="27" t="s">
         <v>36</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -1708,7 +1714,7 @@
       <c r="H30" s="13"/>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="22"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="8" t="s">
         <v>38</v>
       </c>
@@ -1725,7 +1731,7 @@
       <c r="H31" s="13"/>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="22"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="8" t="s">
         <v>39</v>
       </c>
@@ -1742,7 +1748,7 @@
       <c r="H32" s="13"/>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="26"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="8" t="s">
         <v>40</v>
       </c>
@@ -1782,7 +1788,7 @@
       </c>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="29" t="s">
         <v>43</v>
       </c>
       <c r="C35" s="8" t="s">
@@ -1805,7 +1811,7 @@
       </c>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="20"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="8" t="s">
         <v>45</v>
       </c>
@@ -1826,7 +1832,7 @@
       </c>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="20"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="8" t="s">
         <v>46</v>
       </c>
@@ -1847,7 +1853,7 @@
       </c>
     </row>
     <row r="38" spans="2:8">
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="30" t="s">
         <v>47</v>
       </c>
       <c r="C38" s="8" t="s">
@@ -1870,7 +1876,7 @@
       </c>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="26"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="8" t="s">
         <v>49</v>
       </c>
@@ -1891,7 +1897,7 @@
       </c>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="31" t="s">
         <v>50</v>
       </c>
       <c r="C40" s="8" t="s">
@@ -1914,7 +1920,7 @@
       </c>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="27"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="8" t="s">
         <v>52</v>
       </c>
@@ -1957,22 +1963,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="B10:B16"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1984,7 +1990,7 @@
   <dimension ref="B2:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
@@ -2001,18 +2007,18 @@
   <sheetData>
     <row r="2" spans="2:9" ht="31.95" customHeight="1">
       <c r="C2" s="7"/>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32" t="s">
+      <c r="E2" s="42"/>
+      <c r="F2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="28" t="s">
+      <c r="G2" s="44"/>
+      <c r="H2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="29"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="2:9">
       <c r="D3" s="2" t="s">
@@ -2035,223 +2041,225 @@
       </c>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="45" t="s">
         <v>62</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19">
         <v>101800</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35">
+      <c r="F4" s="19"/>
+      <c r="G4" s="19">
         <v>268000</v>
       </c>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35">
+      <c r="H4" s="19"/>
+      <c r="I4" s="19">
         <v>250000</v>
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="42"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36">
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20">
         <v>20000</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="43"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21">
+        <v>41800</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21">
         <f>G4*0.12</f>
         <v>32160</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37">
+      <c r="H6" s="21"/>
+      <c r="I6" s="21">
         <f>I4*0.15</f>
         <v>37500</v>
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="25" t="s">
         <v>63</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="22">
         <v>15000</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="22">
         <v>15000</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="22">
         <v>17500</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="22">
         <v>17500</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="20">
         <v>14980</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="20">
         <v>14980</v>
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="26" t="s">
         <v>61</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="21">
         <v>41800</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37">
+      <c r="E8" s="21"/>
+      <c r="F8" s="21">
         <v>198000</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37">
+      <c r="G8" s="21"/>
+      <c r="H8" s="21">
         <v>80000</v>
       </c>
-      <c r="I8" s="37"/>
+      <c r="I8" s="21"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="37" t="s">
         <v>71</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="22">
         <f>D4+D5+D7+D8</f>
         <v>56800</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="22">
         <f t="shared" ref="E9:I9" si="0">E4+E5+E7+E8</f>
         <v>116800</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="22">
         <f t="shared" si="0"/>
         <v>215500</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="22">
         <f t="shared" si="0"/>
         <v>305500</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="22">
         <f t="shared" si="0"/>
         <v>94980</v>
       </c>
-      <c r="I9" s="38">
+      <c r="I9" s="22">
         <f t="shared" si="0"/>
         <v>264980</v>
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="47"/>
-      <c r="C10" s="34" t="s">
+      <c r="B10" s="38"/>
+      <c r="C10" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="21">
         <f>D6+D7+D8</f>
         <v>56800</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="21">
         <f t="shared" ref="E10:I10" si="1">E6+E7+E8</f>
-        <v>15000</v>
-      </c>
-      <c r="F10" s="37">
+        <v>56800</v>
+      </c>
+      <c r="F10" s="21">
         <f t="shared" si="1"/>
         <v>215500</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="21">
         <f t="shared" si="1"/>
         <v>49660</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="21">
         <f t="shared" si="1"/>
         <v>94980</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="21">
         <f t="shared" si="1"/>
         <v>52480</v>
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="24">
         <f>D9+2*D10</f>
         <v>170400</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="48">
         <f t="shared" ref="E11:I11" si="2">E9+2*E10</f>
-        <v>146800</v>
-      </c>
-      <c r="F11" s="38">
+        <v>230400</v>
+      </c>
+      <c r="F11" s="22">
         <f t="shared" si="2"/>
         <v>646500</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="22">
         <f t="shared" si="2"/>
         <v>404820</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="22">
         <f t="shared" si="2"/>
         <v>284940</v>
       </c>
-      <c r="I11" s="38">
+      <c r="I11" s="22">
         <f t="shared" si="2"/>
         <v>369940</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="47"/>
-      <c r="C12" s="34" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="23">
         <f>D9+4*D10</f>
         <v>284000</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="49">
         <f t="shared" ref="E12:I12" si="3">E9+4*E10</f>
-        <v>176800</v>
-      </c>
-      <c r="F12" s="37">
+        <v>344000</v>
+      </c>
+      <c r="F12" s="21">
         <f t="shared" si="3"/>
         <v>1077500</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="21">
         <f t="shared" si="3"/>
         <v>504140</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="21">
         <f t="shared" si="3"/>
         <v>474900</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="21">
         <f t="shared" si="3"/>
         <v>474900</v>
       </c>
